--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF300B-BCFC-3B44-A6BC-3A6CAB4EEEF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79601FB-A533-384D-BC8E-7D344E0A4B86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1531,40 +1531,10 @@
     <t>English,Spanish,German</t>
   </si>
   <si>
-    <t>[XML(${test1.file}) =&gt; 
- update-attribute(//book[@id='bk101'],id,bk999)
-]</t>
-  </si>
-  <si>
-    <t>[XML(${test1.file}) =&gt; 
- update-attribute(//book[@id='bk101'],id,)
-]</t>
-  </si>
-  <si>
-    <t>[XML(${test1.file}) =&gt; 
- attribute(//book[@id='bk110'],favorite)
-]</t>
-  </si>
-  <si>
     <t>get content</t>
   </si>
   <si>
     <t>Microsoft's .NET initiative is explored in detail in this deep programmer's reference.</t>
-  </si>
-  <si>
-    <t>[XML(${test1.file}) =&gt; 
- attribute(//book[contains(@id\,'bk11'\)],language)
-]</t>
-  </si>
-  <si>
-    <t>[XML(${test1.file}) =&gt; 
- content(//book[@id='bk110']/description)
-]</t>
-  </si>
-  <si>
-    <t>[XML(${test1.file}) =&gt; 
- content(//book[@language!='']/price)
-]</t>
   </si>
   <si>
     <t>36.95,36.95,49.95</t>
@@ -1602,6 +1572,24 @@
   </si>
   <si>
     <t>[XML(${test1.file}) =&gt; remove(//book[@id='bk104'])]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; content(//book[@language!='']/price)]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; content(//book[@id='bk110']/description)]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; attribute(//book[@id='bk110'],favorite)]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; attribute(//book[contains(@id\,'bk11'\)],language)]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; update-attribute(//book[@id='bk101'],id,)]</t>
+  </si>
+  <si>
+    <t>[XML(${test1.file}) =&gt; update-attribute(//book[@id='bk101'],id,bk999)]</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,11 +1865,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1912,10 +1900,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3884,9 +3868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3896,7 +3880,7 @@
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="88.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="94.83203125" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
@@ -4022,7 +4006,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -4241,11 +4225,11 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>478</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4257,8 +4241,8 @@
       <c r="E13" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>489</v>
+      <c r="F13" s="22" t="s">
+        <v>507</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -4295,7 +4279,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="29" t="s">
         <v>483</v>
@@ -4309,8 +4293,8 @@
       <c r="E15" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>490</v>
+      <c r="F15" s="22" t="s">
+        <v>506</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -4401,9 +4385,9 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>486</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -4415,8 +4399,8 @@
       <c r="E19" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>491</v>
+      <c r="F19" s="22" t="s">
+        <v>504</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4428,7 +4412,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="28" t="s">
@@ -4441,7 +4425,7 @@
         <v>488</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>487</v>
@@ -4457,8 +4441,8 @@
     </row>
     <row r="21" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="40" t="s">
-        <v>492</v>
+      <c r="B21" s="31" t="s">
+        <v>489</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>13</v>
@@ -4467,10 +4451,10 @@
         <v>336</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -4482,7 +4466,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -4492,10 +4476,10 @@
         <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>487</v>
@@ -4511,8 +4495,8 @@
     </row>
     <row r="23" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="40" t="s">
-        <v>498</v>
+      <c r="B23" s="31" t="s">
+        <v>492</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>13</v>
@@ -4524,7 +4508,7 @@
         <v>477</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -4549,7 +4533,7 @@
         <v>479</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -4561,7 +4545,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
@@ -4574,7 +4558,7 @@
         <v>477</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4599,10 +4583,10 @@
         <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>487</v>
@@ -4617,8 +4601,8 @@
     </row>
     <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="40" t="s">
-        <v>504</v>
+      <c r="B27" s="31" t="s">
+        <v>498</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>13</v>
@@ -4630,7 +4614,7 @@
         <v>477</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -4655,7 +4639,7 @@
         <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>482</v>
@@ -4682,7 +4666,7 @@
         <v>477</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -4707,7 +4691,7 @@
         <v>479</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79601FB-A533-384D-BC8E-7D344E0A4B86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F79601FB-A533-384D-BC8E-7D344E0A4B86}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1590,13 +1590,17 @@
   </si>
   <si>
     <t>[XML(${test1.file}) =&gt; update-attribute(//book[@id='bk101'],id,bk999)]</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1692,8 +1696,102 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,8 +1810,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1751,163 +2002,490 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="55">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1941,7 +2519,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1966,10 +2544,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2004,7 +2582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2039,7 +2617,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2133,21 +2711,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2164,7 +2742,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2216,26 +2794,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>391</v>
       </c>
@@ -2395,7 +2973,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2469,7 +3047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2540,7 +3118,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +3135,7 @@
         <v>356</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="H5" t="s">
         <v>368</v>
@@ -2605,7 +3183,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2619,7 +3197,7 @@
         <v>408</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -2661,7 +3239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2675,7 +3253,7 @@
         <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -2717,7 +3295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>367</v>
       </c>
@@ -2731,7 +3309,7 @@
         <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -2770,7 +3348,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2784,7 +3362,7 @@
         <v>327</v>
       </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>349</v>
       </c>
       <c r="I9" t="s">
         <v>410</v>
@@ -2814,7 +3392,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -2825,7 +3403,7 @@
         <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>472</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2852,7 +3430,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2863,7 +3441,7 @@
         <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -2887,7 +3465,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2898,7 +3476,7 @@
         <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -2919,7 +3497,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2930,7 +3508,7 @@
         <v>337</v>
       </c>
       <c r="F13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -2951,7 +3529,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -2961,6 +3539,9 @@
       <c r="E14" t="s">
         <v>284</v>
       </c>
+      <c r="F14" t="s">
+        <v>345</v>
+      </c>
       <c r="I14" t="s">
         <v>84</v>
       </c>
@@ -2980,7 +3561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3006,7 +3587,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>420</v>
       </c>
@@ -3029,7 +3610,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>441</v>
       </c>
@@ -3046,7 +3627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>434</v>
       </c>
@@ -3063,7 +3644,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -3080,7 +3661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>416</v>
       </c>
@@ -3097,7 +3678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -3114,7 +3695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3131,7 +3712,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3145,7 +3726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3159,7 +3740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>443</v>
       </c>
@@ -3173,7 +3754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -3187,7 +3768,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>65</v>
       </c>
@@ -3198,7 +3779,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -3209,7 +3790,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>67</v>
       </c>
@@ -3220,7 +3801,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>68</v>
       </c>
@@ -3231,7 +3812,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>69</v>
       </c>
@@ -3242,7 +3823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>70</v>
       </c>
@@ -3253,7 +3834,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>71</v>
       </c>
@@ -3264,7 +3845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" t="s">
         <v>72</v>
       </c>
@@ -3275,7 +3856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>328</v>
       </c>
@@ -3283,7 +3864,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>281</v>
       </c>
@@ -3291,7 +3872,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>329</v>
       </c>
@@ -3299,7 +3880,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>287</v>
       </c>
@@ -3307,7 +3888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>79</v>
       </c>
@@ -3315,7 +3896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>213</v>
       </c>
@@ -3323,7 +3904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>309</v>
       </c>
@@ -3331,7 +3912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>320</v>
       </c>
@@ -3339,7 +3920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>321</v>
       </c>
@@ -3347,7 +3928,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>363</v>
       </c>
@@ -3355,7 +3936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>362</v>
       </c>
@@ -3363,7 +3944,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>212</v>
       </c>
@@ -3371,7 +3952,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>322</v>
       </c>
@@ -3379,7 +3960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>359</v>
       </c>
@@ -3387,7 +3968,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>388</v>
       </c>
@@ -3395,7 +3976,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>323</v>
       </c>
@@ -3403,7 +3984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>376</v>
       </c>
@@ -3411,7 +3992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>351</v>
       </c>
@@ -3419,7 +4000,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>288</v>
       </c>
@@ -3427,7 +4008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>312</v>
       </c>
@@ -3435,7 +4016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>313</v>
       </c>
@@ -3443,7 +4024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>314</v>
       </c>
@@ -3451,7 +4032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>324</v>
       </c>
@@ -3459,7 +4040,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>333</v>
       </c>
@@ -3467,7 +4048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>357</v>
       </c>
@@ -3475,7 +4056,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>330</v>
       </c>
@@ -3483,7 +4064,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>331</v>
       </c>
@@ -3491,7 +4072,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>389</v>
       </c>
@@ -3499,7 +4080,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>390</v>
       </c>
@@ -3507,7 +4088,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>365</v>
       </c>
@@ -3515,7 +4096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>334</v>
       </c>
@@ -3523,7 +4104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>289</v>
       </c>
@@ -3531,7 +4112,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>373</v>
       </c>
@@ -3539,7 +4120,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>335</v>
       </c>
@@ -3547,7 +4128,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>430</v>
       </c>
@@ -3555,7 +4136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>325</v>
       </c>
@@ -3563,7 +4144,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>431</v>
       </c>
@@ -3571,7 +4152,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>282</v>
       </c>
@@ -3579,7 +4160,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>364</v>
       </c>
@@ -3587,7 +4168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>300</v>
       </c>
@@ -3595,7 +4176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>306</v>
       </c>
@@ -3603,7 +4184,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>311</v>
       </c>
@@ -3611,7 +4192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>449</v>
       </c>
@@ -3619,7 +4200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>352</v>
       </c>
@@ -3627,7 +4208,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>290</v>
       </c>
@@ -3635,7 +4216,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>301</v>
       </c>
@@ -3643,7 +4224,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>307</v>
       </c>
@@ -3651,7 +4232,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>296</v>
       </c>
@@ -3659,7 +4240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>291</v>
       </c>
@@ -3667,7 +4248,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>308</v>
       </c>
@@ -3675,7 +4256,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>292</v>
       </c>
@@ -3683,7 +4264,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>293</v>
       </c>
@@ -3691,7 +4272,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>326</v>
       </c>
@@ -3699,7 +4280,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>332</v>
       </c>
@@ -3707,7 +4288,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>315</v>
       </c>
@@ -3715,7 +4296,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>360</v>
       </c>
@@ -3723,7 +4304,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>297</v>
       </c>
@@ -3731,7 +4312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>298</v>
       </c>
@@ -3739,159 +4320,159 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="U115" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="94.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="47.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="44.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="32.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="94.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="18.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3922,7 +4503,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -3943,7 +4524,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3960,7 +4541,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -4005,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>475</v>
       </c>
@@ -4034,7 +4615,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>245</v>
@@ -4061,7 +4642,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>247</v>
@@ -4086,7 +4667,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>248</v>
@@ -4115,7 +4696,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>251</v>
@@ -4144,7 +4725,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4169,7 +4750,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>256</v>
@@ -4196,7 +4777,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>257</v>
@@ -4225,7 +4806,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>476</v>
       </c>
@@ -4254,7 +4835,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4279,7 +4860,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="28" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="29" t="s">
         <v>483</v>
@@ -4306,7 +4887,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="29" t="s">
         <v>484</v>
@@ -4333,7 +4914,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="28" t="s">
@@ -4360,7 +4941,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="28" t="s">
@@ -4385,7 +4966,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="27" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="30" t="s">
         <v>486</v>
@@ -4412,7 +4993,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="25" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="28" t="s">
@@ -4439,7 +5020,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="59" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="31" t="s">
         <v>489</v>
@@ -4466,7 +5047,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="25" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -4493,7 +5074,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="65" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="31" t="s">
         <v>492</v>
@@ -4520,7 +5101,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
@@ -4545,7 +5126,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="50" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
@@ -4570,7 +5151,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
@@ -4599,7 +5180,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="31" t="s">
         <v>498</v>
@@ -4626,7 +5207,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
@@ -4653,7 +5234,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="27" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -4678,7 +5259,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13" t="s">
@@ -4703,7 +5284,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4720,7 +5301,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4737,7 +5318,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4754,7 +5335,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4771,7 +5352,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4788,7 +5369,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4805,7 +5386,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4822,7 +5403,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4839,7 +5420,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4856,7 +5437,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4873,7 +5454,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4890,7 +5471,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4907,7 +5488,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4924,7 +5505,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4941,7 +5522,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4958,7 +5539,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4975,7 +5556,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4992,7 +5573,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5009,7 +5590,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5026,7 +5607,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5043,7 +5624,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5060,7 +5641,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5077,7 +5658,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5094,7 +5675,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5111,7 +5692,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5128,7 +5709,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5145,7 +5726,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5162,7 +5743,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5179,7 +5760,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5196,7 +5777,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5213,7 +5794,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5230,7 +5811,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5247,7 +5828,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5264,7 +5845,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5281,7 +5862,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5298,7 +5879,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5315,7 +5896,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5332,7 +5913,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5349,7 +5930,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5366,7 +5947,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5383,7 +5964,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5400,7 +5981,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5417,7 +5998,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5434,7 +6015,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5451,7 +6032,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5468,7 +6049,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5485,7 +6066,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5502,7 +6083,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5519,7 +6100,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5536,7 +6117,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5553,7 +6134,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5570,7 +6151,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5587,7 +6168,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5604,7 +6185,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5621,7 +6202,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5638,7 +6219,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5655,7 +6236,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5672,7 +6253,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5689,7 +6270,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5706,7 +6287,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5723,7 +6304,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5740,7 +6321,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5757,7 +6338,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5774,7 +6355,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5791,7 +6372,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5808,7 +6389,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5825,7 +6406,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5842,7 +6423,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5859,7 +6440,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5876,7 +6457,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5893,7 +6474,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5910,7 +6491,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5927,7 +6508,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5944,7 +6525,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5961,7 +6542,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5978,7 +6559,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5995,7 +6576,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6012,7 +6593,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6029,7 +6610,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6046,7 +6627,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6063,7 +6644,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6080,7 +6661,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6097,7 +6678,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6114,7 +6695,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6131,7 +6712,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6148,7 +6729,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6165,7 +6746,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6182,7 +6763,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6199,7 +6780,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6216,7 +6797,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6233,7 +6814,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6250,7 +6831,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6267,7 +6848,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6284,7 +6865,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6301,7 +6882,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6318,7 +6899,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6335,7 +6916,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6352,7 +6933,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6369,7 +6950,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6386,7 +6967,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6403,7 +6984,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6420,7 +7001,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6437,7 +7018,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6454,7 +7035,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6471,7 +7052,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6488,7 +7069,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6505,7 +7086,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6522,7 +7103,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6539,7 +7120,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6556,7 +7137,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6573,7 +7154,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6590,7 +7171,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6607,7 +7188,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6624,7 +7205,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6641,7 +7222,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6658,7 +7239,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6675,7 +7256,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6692,7 +7273,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6709,7 +7290,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6726,7 +7307,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6743,7 +7324,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6760,7 +7341,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6777,7 +7358,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6794,7 +7375,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6811,7 +7392,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6828,7 +7409,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6845,7 +7426,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6862,7 +7443,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6879,7 +7460,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6896,7 +7477,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6913,7 +7494,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6930,7 +7511,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6947,7 +7528,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6964,7 +7545,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6981,7 +7562,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6998,7 +7579,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7015,7 +7596,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7032,7 +7613,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7049,7 +7630,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7066,7 +7647,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7083,7 +7664,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7100,7 +7681,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7117,7 +7698,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7134,7 +7715,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7151,7 +7732,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7168,7 +7749,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7185,7 +7766,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7202,7 +7783,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7219,7 +7800,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7236,7 +7817,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7253,7 +7834,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7270,7 +7851,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7287,7 +7868,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7304,7 +7885,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7321,7 +7902,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7338,7 +7919,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7355,7 +7936,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7372,7 +7953,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7389,7 +7970,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7406,7 +7987,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7423,7 +8004,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7440,7 +8021,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7457,7 +8038,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7474,7 +8055,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7491,7 +8072,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7508,7 +8089,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7525,7 +8106,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7542,7 +8123,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7559,7 +8140,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7576,7 +8157,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7593,7 +8174,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7610,7 +8191,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7627,7 +8208,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7644,7 +8225,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7661,7 +8242,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7678,7 +8259,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7695,7 +8276,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7712,7 +8293,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7729,7 +8310,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7746,7 +8327,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7763,7 +8344,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7780,7 +8361,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7797,7 +8378,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7814,7 +8395,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7831,7 +8412,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7848,7 +8429,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7865,7 +8446,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7882,7 +8463,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7899,7 +8480,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7916,7 +8497,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7933,7 +8514,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7950,7 +8531,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7967,7 +8548,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7984,7 +8565,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8001,7 +8582,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8018,7 +8599,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8035,7 +8616,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8052,7 +8633,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8069,7 +8650,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8086,7 +8667,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8103,7 +8684,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8120,7 +8701,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8137,7 +8718,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8154,7 +8735,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8171,7 +8752,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8188,7 +8769,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8205,7 +8786,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8222,7 +8803,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8239,7 +8820,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8256,7 +8837,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8273,7 +8854,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8290,7 +8871,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8307,7 +8888,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8324,7 +8905,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8341,7 +8922,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8358,7 +8939,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8375,7 +8956,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8392,7 +8973,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8409,7 +8990,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8426,7 +9007,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8443,7 +9024,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8460,7 +9041,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8477,7 +9058,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8494,7 +9075,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8511,7 +9092,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8528,7 +9109,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8545,7 +9126,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8562,7 +9143,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8579,7 +9160,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8596,7 +9177,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8613,7 +9194,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8630,7 +9211,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8647,7 +9228,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8664,7 +9245,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8681,7 +9262,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8698,7 +9279,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8715,7 +9296,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8732,7 +9313,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8749,7 +9330,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8766,7 +9347,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8783,7 +9364,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8800,7 +9381,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8817,7 +9398,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8834,7 +9415,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8851,7 +9432,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8868,7 +9449,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8885,7 +9466,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8902,7 +9483,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8919,7 +9500,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8936,7 +9517,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8953,7 +9534,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8970,7 +9551,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8987,7 +9568,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9004,7 +9585,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9021,7 +9602,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9038,7 +9619,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9055,7 +9636,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9072,7 +9653,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9089,7 +9670,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9106,7 +9687,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9123,7 +9704,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9140,7 +9721,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9157,7 +9738,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9174,7 +9755,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9191,7 +9772,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9208,7 +9789,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9225,7 +9806,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9242,7 +9823,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9259,7 +9840,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9276,7 +9857,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9293,7 +9874,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -9310,7 +9891,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -9327,7 +9908,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -9344,7 +9925,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -9361,7 +9942,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -9378,7 +9959,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -9395,7 +9976,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -9412,7 +9993,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -9429,7 +10010,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9446,7 +10027,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9463,7 +10044,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9480,7 +10061,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9497,7 +10078,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9514,7 +10095,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9531,7 +10112,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9548,7 +10129,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9565,7 +10146,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9582,7 +10163,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9599,7 +10180,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9616,7 +10197,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9633,7 +10214,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9650,7 +10231,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9667,7 +10248,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9684,7 +10265,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9701,7 +10282,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9718,7 +10299,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9735,7 +10316,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9752,7 +10333,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9769,7 +10350,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9786,7 +10367,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9803,7 +10384,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9820,7 +10401,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9837,7 +10418,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9854,7 +10435,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9871,7 +10452,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9888,7 +10469,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9905,7 +10486,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9922,7 +10503,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9939,7 +10520,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9956,7 +10537,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9973,7 +10554,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9990,7 +10571,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -10007,7 +10588,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -10024,7 +10605,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -10041,7 +10622,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -10058,7 +10639,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -10075,7 +10656,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -10092,7 +10673,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -10109,7 +10690,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -10126,7 +10707,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -10143,7 +10724,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -10160,7 +10741,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -10177,7 +10758,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -10194,7 +10775,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -10211,7 +10792,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -10228,7 +10809,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -10245,7 +10826,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -10262,7 +10843,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -10279,7 +10860,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -10296,7 +10877,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -10313,7 +10894,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -10330,7 +10911,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -10347,7 +10928,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -10364,7 +10945,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -10381,7 +10962,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -10398,7 +10979,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -10415,7 +10996,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10432,7 +11013,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10449,7 +11030,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10466,7 +11047,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10483,7 +11064,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10500,7 +11081,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10517,7 +11098,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10534,7 +11115,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10551,7 +11132,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10568,7 +11149,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10585,7 +11166,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10602,7 +11183,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10619,7 +11200,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10636,7 +11217,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10653,7 +11234,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10670,7 +11251,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10687,7 +11268,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10704,7 +11285,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10721,7 +11302,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10738,7 +11319,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10755,7 +11336,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10772,7 +11353,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10789,7 +11370,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10806,7 +11387,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10823,7 +11404,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10840,7 +11421,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10857,7 +11438,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10874,7 +11455,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10891,7 +11472,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10908,7 +11489,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10925,7 +11506,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10942,7 +11523,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10959,7 +11540,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10976,7 +11557,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10993,7 +11574,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -11010,7 +11591,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -11027,7 +11608,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -11044,7 +11625,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -11061,7 +11642,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -11078,7 +11659,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -11095,7 +11676,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -11112,7 +11693,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -11129,7 +11710,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -11146,7 +11727,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -11163,7 +11744,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -11180,7 +11761,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -11197,7 +11778,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -11214,7 +11795,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -11231,7 +11812,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -11248,7 +11829,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -11265,7 +11846,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -11282,7 +11863,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -11299,7 +11880,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -11316,7 +11897,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -11333,7 +11914,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -11350,7 +11931,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -11367,7 +11948,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -11384,7 +11965,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -11401,7 +11982,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -11418,7 +11999,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11435,7 +12016,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11452,7 +12033,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11469,7 +12050,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11486,7 +12067,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11503,7 +12084,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11520,7 +12101,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11537,7 +12118,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11554,7 +12135,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11571,7 +12152,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11588,7 +12169,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11605,7 +12186,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11622,7 +12203,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11639,7 +12220,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11656,7 +12237,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11673,7 +12254,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11690,7 +12271,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11707,7 +12288,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11724,7 +12305,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11741,7 +12322,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11758,7 +12339,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11775,7 +12356,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11792,7 +12373,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11809,7 +12390,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11826,7 +12407,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11843,7 +12424,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11860,7 +12441,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11877,7 +12458,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11894,7 +12475,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11911,7 +12492,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11928,7 +12509,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11945,7 +12526,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11962,7 +12543,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11979,7 +12560,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11996,7 +12577,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -12013,7 +12594,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -12030,7 +12611,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -12047,7 +12628,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -12064,7 +12645,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -12081,7 +12662,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -12098,7 +12679,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -12115,7 +12696,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -12132,7 +12713,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -12149,7 +12730,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -12166,7 +12747,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -12183,7 +12764,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -12200,7 +12781,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -12217,7 +12798,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -12234,7 +12815,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -12251,7 +12832,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -12268,7 +12849,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -12285,7 +12866,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -12302,7 +12883,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -12319,7 +12900,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -12336,7 +12917,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -12353,7 +12934,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -12370,7 +12951,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -12387,7 +12968,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -12404,7 +12985,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -12421,7 +13002,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12438,7 +13019,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12455,7 +13036,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12472,7 +13053,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12489,7 +13070,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12506,7 +13087,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12523,7 +13104,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12540,7 +13121,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12557,7 +13138,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12574,7 +13155,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12591,7 +13172,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12608,7 +13189,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12625,7 +13206,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12642,7 +13223,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12659,7 +13240,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12676,7 +13257,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12693,7 +13274,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12710,7 +13291,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12727,7 +13308,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12744,7 +13325,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12761,7 +13342,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12778,7 +13359,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12795,7 +13376,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12812,7 +13393,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12829,7 +13410,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12846,7 +13427,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12863,7 +13444,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12880,7 +13461,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12897,7 +13478,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12914,7 +13495,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12931,7 +13512,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12948,7 +13529,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12965,7 +13546,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12982,7 +13563,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12999,7 +13580,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -13016,7 +13597,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -13033,7 +13614,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -13050,7 +13631,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -13067,7 +13648,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -13084,7 +13665,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -13101,7 +13682,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -13118,7 +13699,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -13135,7 +13716,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -13152,7 +13733,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -13169,7 +13750,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -13186,7 +13767,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -13203,7 +13784,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -13220,7 +13801,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -13237,7 +13818,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -13254,7 +13835,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -13271,7 +13852,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -13288,7 +13869,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -13305,7 +13886,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -13322,7 +13903,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -13339,7 +13920,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -13356,7 +13937,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -13373,7 +13954,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -13390,7 +13971,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -13407,7 +13988,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -13424,7 +14005,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13441,7 +14022,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13458,7 +14039,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13475,7 +14056,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13492,7 +14073,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13509,7 +14090,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13526,7 +14107,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13543,7 +14124,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13560,7 +14141,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13577,7 +14158,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13594,7 +14175,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13611,7 +14192,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13628,7 +14209,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13645,7 +14226,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13662,7 +14243,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13679,7 +14260,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13696,7 +14277,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13713,7 +14294,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13730,7 +14311,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13747,7 +14328,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13764,7 +14345,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13781,7 +14362,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13798,7 +14379,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13815,7 +14396,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13832,7 +14413,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13849,7 +14430,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13866,7 +14447,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13883,7 +14464,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13900,7 +14481,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13917,7 +14498,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13934,7 +14515,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13951,7 +14532,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13968,7 +14549,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13985,7 +14566,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -14002,7 +14583,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -14019,7 +14600,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -14036,7 +14617,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -14053,7 +14634,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -14070,7 +14651,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -14087,7 +14668,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -14104,7 +14685,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -14121,7 +14702,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -14138,7 +14719,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -14155,7 +14736,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -14172,7 +14753,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -14189,7 +14770,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -14206,7 +14787,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -14223,7 +14804,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -14240,7 +14821,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -14257,7 +14838,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -14274,7 +14855,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -14291,7 +14872,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -14308,7 +14889,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -14325,7 +14906,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -14342,7 +14923,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -14359,7 +14940,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -14376,7 +14957,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -14393,7 +14974,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -14410,7 +14991,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -14427,7 +15008,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14444,7 +15025,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14461,7 +15042,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14478,7 +15059,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14495,7 +15076,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14512,7 +15093,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14529,7 +15110,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14546,7 +15127,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14563,7 +15144,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14580,7 +15161,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14597,7 +15178,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14614,7 +15195,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14631,7 +15212,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14648,7 +15229,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14665,7 +15246,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14682,7 +15263,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14699,7 +15280,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14716,7 +15297,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14733,7 +15314,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14750,7 +15331,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14767,7 +15348,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14784,7 +15365,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14801,7 +15382,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14818,7 +15399,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14835,7 +15416,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14852,7 +15433,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14869,7 +15450,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14886,7 +15467,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14903,7 +15484,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14920,7 +15501,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14937,7 +15518,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14954,7 +15535,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14971,7 +15552,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14988,7 +15569,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -15005,7 +15586,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -15022,7 +15603,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -15039,7 +15620,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -15056,7 +15637,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -15073,7 +15654,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -15090,7 +15671,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -15107,7 +15688,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -15124,7 +15705,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -15141,7 +15722,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -15158,7 +15739,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -15175,7 +15756,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -15192,7 +15773,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -15209,360 +15790,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15570,25 +16151,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{F79601FB-A533-384D-BC8E-7D344E0A4B86}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1593,6 +1593,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1603,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1790,8 +1793,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1963,8 +2154,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2284,6 +2781,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2292,7 +3353,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2434,49 +3495,139 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="32" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2804,7 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3543,7 +4694,7 @@
         <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -3572,7 +4723,7 @@
         <v>285</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -3598,7 +4749,7 @@
         <v>338</v>
       </c>
       <c r="I16" t="s">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>272</v>
@@ -3621,7 +4772,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -3638,7 +4789,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -3655,7 +4806,7 @@
         <v>316</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -3672,7 +4823,7 @@
         <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -3689,7 +4840,7 @@
         <v>318</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -3706,7 +4857,7 @@
         <v>319</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -3721,6 +4872,9 @@
       </c>
       <c r="E23" t="s">
         <v>310</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1596,6 +1596,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1609,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1981,8 +1987,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2460,8 +2560,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3345,6 +3598,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3353,7 +3888,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3585,49 +4120,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4132,7 +4712,7 @@
         <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
         <v>385</v>
@@ -4206,7 +4786,7 @@
         <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -4277,7 +4857,7 @@
         <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="D5" t="s">
         <v>459</v>
@@ -4342,7 +4922,7 @@
         <v>396</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>408</v>
@@ -4398,7 +4978,7 @@
         <v>397</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>386</v>
@@ -4454,7 +5034,7 @@
         <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
         <v>387</v>
@@ -4507,7 +5087,7 @@
         <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>327</v>
@@ -4548,7 +5128,7 @@
         <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E10" t="s">
         <v>372</v>
@@ -4586,7 +5166,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
         <v>294</v>
@@ -4621,7 +5201,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
         <v>283</v>
@@ -4653,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="E13" t="s">
         <v>337</v>
@@ -4685,7 +5265,7 @@
         <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>405</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>284</v>
@@ -4717,7 +5297,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>285</v>
@@ -4743,7 +5323,7 @@
         <v>420</v>
       </c>
       <c r="C16" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="E16" t="s">
         <v>338</v>
@@ -4766,7 +5346,7 @@
         <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -4783,7 +5363,7 @@
         <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>432</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -4800,7 +5380,7 @@
         <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>316</v>
@@ -4817,7 +5397,7 @@
         <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>317</v>
@@ -4834,7 +5414,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
         <v>318</v>
@@ -4851,7 +5431,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>319</v>
@@ -4868,7 +5448,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>341</v>
       </c>
       <c r="E23" t="s">
         <v>310</v>
@@ -4885,7 +5465,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>299</v>
@@ -4899,7 +5479,7 @@
         <v>443</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>468</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -4913,7 +5493,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>302</v>
@@ -4924,7 +5504,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>286</v>
@@ -4935,7 +5515,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>439</v>
       </c>
       <c r="E28" t="s">
         <v>303</v>
@@ -4946,7 +5526,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>304</v>
@@ -4957,7 +5537,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -4968,7 +5548,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>295</v>
@@ -4979,7 +5559,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>305</v>
@@ -4990,7 +5570,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>280</v>
@@ -5001,7 +5581,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>350</v>
@@ -5011,6 +5591,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>328</v>
       </c>
@@ -5019,6 +5602,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>281</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1602,6 +1602,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1612,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2081,8 +2084,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2713,8 +2810,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3880,6 +4130,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3888,7 +4420,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4165,49 +4697,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4533,7 +5110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5745,7 +6322,7 @@
         <v>288</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54">
@@ -5753,7 +6330,7 @@
         <v>312</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -5761,7 +6338,7 @@
         <v>313</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -5769,7 +6346,7 @@
         <v>314</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -5777,7 +6354,7 @@
         <v>324</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -5785,7 +6362,7 @@
         <v>333</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -5793,7 +6370,7 @@
         <v>357</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -5801,7 +6378,7 @@
         <v>330</v>
       </c>
       <c r="U60" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -5809,7 +6386,7 @@
         <v>331</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
@@ -5817,7 +6394,7 @@
         <v>389</v>
       </c>
       <c r="U62" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -5825,7 +6402,7 @@
         <v>390</v>
       </c>
       <c r="U63" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64">
@@ -5833,7 +6410,7 @@
         <v>365</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65">
@@ -5841,7 +6418,7 @@
         <v>334</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5849,7 +6426,7 @@
         <v>289</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5857,7 +6434,7 @@
         <v>373</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -5865,7 +6442,7 @@
         <v>335</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -5873,7 +6450,7 @@
         <v>430</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -5881,7 +6458,7 @@
         <v>325</v>
       </c>
       <c r="U70" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -5889,7 +6466,7 @@
         <v>431</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72">
@@ -5897,7 +6474,7 @@
         <v>282</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -5905,7 +6482,7 @@
         <v>364</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -5913,7 +6490,7 @@
         <v>300</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -5921,7 +6498,7 @@
         <v>306</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -5929,7 +6506,7 @@
         <v>311</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -5937,7 +6514,7 @@
         <v>449</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -5945,7 +6522,7 @@
         <v>352</v>
       </c>
       <c r="U78" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -5953,7 +6530,7 @@
         <v>290</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80">
@@ -5961,7 +6538,7 @@
         <v>301</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -5969,7 +6546,7 @@
         <v>307</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -5977,7 +6554,7 @@
         <v>296</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -5985,7 +6562,7 @@
         <v>291</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -5993,7 +6570,7 @@
         <v>308</v>
       </c>
       <c r="U84" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -6001,7 +6578,7 @@
         <v>292</v>
       </c>
       <c r="U85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86">
@@ -6009,7 +6586,7 @@
         <v>293</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87">
@@ -6017,7 +6594,7 @@
         <v>326</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -6025,7 +6602,7 @@
         <v>332</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -6033,7 +6610,7 @@
         <v>315</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -6041,7 +6618,7 @@
         <v>360</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -6049,7 +6626,7 @@
         <v>297</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -6057,126 +6634,131 @@
         <v>298</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1618,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2178,8 +2184,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2963,8 +3070,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4412,6 +4672,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4420,7 +4962,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4742,49 +5284,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5449,7 +6039,7 @@
         <v>368</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -5508,7 +6098,7 @@
         <v>471</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -5564,7 +6154,7 @@
         <v>467</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>336</v>
@@ -5620,7 +6210,7 @@
         <v>348</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -5673,7 +6263,7 @@
         <v>349</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -5714,7 +6304,7 @@
         <v>472</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -5752,7 +6342,7 @@
         <v>342</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>461</v>
@@ -5787,7 +6377,7 @@
         <v>343</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -5819,7 +6409,7 @@
         <v>344</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -5851,7 +6441,7 @@
         <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -5880,7 +6470,7 @@
         <v>285</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -5906,7 +6496,7 @@
         <v>338</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>272</v>
@@ -5929,10 +6519,13 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
+      </c>
+      <c r="X17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="18">
@@ -5946,7 +6539,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -5963,7 +6556,7 @@
         <v>316</v>
       </c>
       <c r="I19" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -5980,7 +6573,7 @@
         <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -5997,7 +6590,7 @@
         <v>318</v>
       </c>
       <c r="I21" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6014,7 +6607,7 @@
         <v>319</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -6031,7 +6624,7 @@
         <v>310</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -6046,6 +6639,9 @@
       </c>
       <c r="E24" t="s">
         <v>299</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1611,6 +1612,15 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1628,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="105" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2285,8 +2295,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3223,8 +3334,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4954,6 +5218,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4962,7 +5508,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5329,52 +5875,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5700,7 +6294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5719,75 +6313,78 @@
         <v>391</v>
       </c>
       <c r="C1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>367</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>420</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>441</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>434</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>377</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>416</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>443</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5799,1562 +6396,1571 @@
         <v>392</v>
       </c>
       <c r="C2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>469</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>369</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>336</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>404</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>450</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>433</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>451</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>273</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>421</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>442</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>440</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>401</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>417</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>453</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>393</v>
       </c>
       <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" t="s">
         <v>510</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>385</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>370</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>361</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>354</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>452</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>260</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>422</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>436</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>402</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>418</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>384</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>394</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>407</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>470</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>371</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>258</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>355</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>261</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>423</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>437</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>378</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>419</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>374</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>444</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>395</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>511</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>459</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>356</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>508</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>368</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>513</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>262</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>424</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>438</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>379</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>375</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>445</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>396</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>408</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>471</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>263</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>411</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>425</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>381</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>465</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>446</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>397</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>386</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>467</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>336</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>264</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>435</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>426</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>380</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>466</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>447</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>398</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>339</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>387</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>348</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>265</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>427</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>382</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>448</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
         <v>399</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>327</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>349</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>266</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>428</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>383</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>336</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>372</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>472</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>410</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>454</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>267</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>429</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>277</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" t="s">
         <v>275</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>294</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>342</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>461</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>268</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>278</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>279</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>340</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>283</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>343</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>269</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>361</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>344</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>274</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>346</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>284</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>345</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>270</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>285</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>509</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>271</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>405</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>338</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>272</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
         <v>406</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" t="s">
         <v>432</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>400</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>377</v>
-      </c>
-      <c r="C19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>316</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>416</v>
-      </c>
-      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>317</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>412</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" t="s">
         <v>276</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>318</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>319</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>460</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>341</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>310</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>299</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>443</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>468</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>302</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>302</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>286</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>439</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>303</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>304</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>295</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>305</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>280</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>350</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>328</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>281</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>329</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>287</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>309</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>320</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>321</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>363</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>362</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>322</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>359</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>388</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>323</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>376</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>351</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>288</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>312</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>313</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>314</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>324</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>333</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>357</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>330</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>331</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>389</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>390</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>365</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>334</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>289</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>373</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>335</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>430</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>325</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>431</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>282</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>364</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>300</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>306</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>311</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>449</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>352</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>290</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>301</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>307</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>296</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>291</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>308</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>292</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>293</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>326</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>332</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>315</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>360</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>297</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>298</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1621,6 +1621,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1634,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2396,8 +2402,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3487,8 +3594,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5500,6 +5760,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5508,7 +6050,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5923,52 +6465,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6294,7 +6884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6396,7 +6986,7 @@
         <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -7508,7 +8098,7 @@
         <v>376</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52">
@@ -7516,7 +8106,7 @@
         <v>351</v>
       </c>
       <c r="V52" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -7524,7 +8114,7 @@
         <v>288</v>
       </c>
       <c r="V53" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54">
@@ -7532,7 +8122,7 @@
         <v>312</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55">
@@ -7540,7 +8130,7 @@
         <v>313</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -7548,7 +8138,7 @@
         <v>314</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -7556,7 +8146,7 @@
         <v>324</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -7564,7 +8154,7 @@
         <v>333</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -7572,7 +8162,7 @@
         <v>357</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -7580,7 +8170,7 @@
         <v>330</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -7588,7 +8178,7 @@
         <v>331</v>
       </c>
       <c r="V61" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -7596,7 +8186,7 @@
         <v>389</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63">
@@ -7604,7 +8194,7 @@
         <v>390</v>
       </c>
       <c r="V63" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -7612,7 +8202,7 @@
         <v>365</v>
       </c>
       <c r="V64" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65">
@@ -7620,7 +8210,7 @@
         <v>334</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
@@ -7628,7 +8218,7 @@
         <v>289</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7636,7 +8226,7 @@
         <v>373</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7644,7 +8234,7 @@
         <v>335</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -7652,7 +8242,7 @@
         <v>430</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -7660,7 +8250,7 @@
         <v>325</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -7668,7 +8258,7 @@
         <v>431</v>
       </c>
       <c r="V71" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -7676,7 +8266,7 @@
         <v>282</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73">
@@ -7684,7 +8274,7 @@
         <v>364</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -7692,7 +8282,7 @@
         <v>300</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -7700,7 +8290,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -7708,7 +8298,7 @@
         <v>311</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -7716,7 +8306,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -7724,7 +8314,7 @@
         <v>352</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -7732,7 +8322,7 @@
         <v>290</v>
       </c>
       <c r="V79" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -7740,7 +8330,7 @@
         <v>301</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81">
@@ -7748,7 +8338,7 @@
         <v>307</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -7756,7 +8346,7 @@
         <v>296</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -7764,7 +8354,7 @@
         <v>291</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -7772,7 +8362,7 @@
         <v>308</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -7780,7 +8370,7 @@
         <v>292</v>
       </c>
       <c r="V85" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -7788,7 +8378,7 @@
         <v>293</v>
       </c>
       <c r="V86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87">
@@ -7796,7 +8386,7 @@
         <v>326</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88">
@@ -7804,7 +8394,7 @@
         <v>332</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -7812,7 +8402,7 @@
         <v>315</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -7820,7 +8410,7 @@
         <v>360</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -7828,7 +8418,7 @@
         <v>297</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -7836,131 +8426,136 @@
         <v>298</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5802" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1627,6 +1627,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1643,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="137" x14ac:knownFonts="1">
+  <fonts count="185" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2503,8 +2512,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3747,8 +4059,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6042,6 +6813,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6050,7 +7667,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="211">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6513,52 +8130,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="124" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="140" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="155" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="156" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7004,7 +8765,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>522</v>
       </c>
       <c r="J2" t="s">
         <v>336</v>
@@ -7087,7 +8848,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J3" t="s">
         <v>361</v>
@@ -7158,7 +8919,7 @@
         <v>470</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
         <v>258</v>
@@ -7229,7 +8990,7 @@
         <v>508</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J5" t="s">
         <v>513</v>
@@ -7289,6 +9050,9 @@
       </c>
       <c r="G6" t="s">
         <v>471</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5802" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1636,6 +1636,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1646,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="185" x14ac:knownFonts="1">
+  <fonts count="201" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2815,8 +2818,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4518,8 +4622,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7659,6 +7916,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7667,7 +8206,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="227">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8274,52 +8813,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="171" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="172" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="285" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="291" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="294" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="297" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8645,7 +9232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10038,7 +10625,7 @@
         <v>364</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74">
@@ -10046,7 +10633,7 @@
         <v>300</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -10054,7 +10641,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -10062,7 +10649,7 @@
         <v>311</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -10070,7 +10657,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -10078,7 +10665,7 @@
         <v>352</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -10086,7 +10673,7 @@
         <v>290</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -10094,7 +10681,7 @@
         <v>301</v>
       </c>
       <c r="V80" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -10102,7 +10689,7 @@
         <v>307</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82">
@@ -10110,7 +10697,7 @@
         <v>296</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -10118,7 +10705,7 @@
         <v>291</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -10126,7 +10713,7 @@
         <v>308</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -10134,7 +10721,7 @@
         <v>292</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -10142,7 +10729,7 @@
         <v>293</v>
       </c>
       <c r="V86" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -10150,7 +10737,7 @@
         <v>326</v>
       </c>
       <c r="V87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88">
@@ -10158,7 +10745,7 @@
         <v>332</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89">
@@ -10166,7 +10753,7 @@
         <v>315</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -10174,7 +10761,7 @@
         <v>360</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -10182,7 +10769,7 @@
         <v>297</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -10190,136 +10777,141 @@
         <v>298</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6280" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1639,6 +1639,15 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1655,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="201" x14ac:knownFonts="1">
+  <fonts count="249" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2919,8 +2928,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4775,8 +5087,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8198,6 +8969,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8206,7 +9823,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8861,52 +10478,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="188" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="312" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="318" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="321" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="324" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="203" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="204" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="207" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="219" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="220" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10100,7 +11861,7 @@
         <v>316</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -10117,7 +11878,7 @@
         <v>317</v>
       </c>
       <c r="J20" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -10134,7 +11895,7 @@
         <v>318</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -10151,7 +11912,7 @@
         <v>319</v>
       </c>
       <c r="J22" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -10168,7 +11929,7 @@
         <v>310</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -10185,7 +11946,7 @@
         <v>299</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -10201,6 +11962,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -10235,7 +11999,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="F28" t="s">
         <v>303</v>
@@ -10246,7 +12010,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>525</v>
       </c>
       <c r="F29" t="s">
         <v>304</v>
@@ -10257,7 +12021,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -10268,7 +12032,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>295</v>
@@ -10279,7 +12043,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>305</v>
@@ -10290,7 +12054,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>280</v>
@@ -10301,7 +12065,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>350</v>
@@ -10312,7 +12076,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>328</v>
@@ -10323,7 +12087,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>281</v>
@@ -10333,6 +12097,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>329</v>
       </c>
@@ -10341,6 +12108,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>287</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8684" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1648,6 +1648,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1661,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="249" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3231,8 +3237,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5546,8 +5754,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9815,6 +10329,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9823,7 +10901,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10622,52 +11700,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="236" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="251" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="252" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="255" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11650,7 +12824,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -11685,7 +12859,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -11717,7 +12891,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>527</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -11749,7 +12923,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -11777,6 +12951,9 @@
       <c r="J15" t="s">
         <v>509</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -11802,6 +12979,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>272</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8684" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9170" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1654,6 +1654,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1670,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="297" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3439,8 +3448,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6060,8 +6170,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10893,6 +11156,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10901,7 +11446,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11796,52 +12341,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="267" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12167,7 +12760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12766,7 +13359,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
@@ -12804,7 +13397,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11">
@@ -12839,7 +13432,7 @@
         <v>279</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -12873,6 +13466,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -12905,6 +13501,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -13495,7 +14094,7 @@
         <v>390</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64">
@@ -13503,7 +14102,7 @@
         <v>365</v>
       </c>
       <c r="V64" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -13511,7 +14110,7 @@
         <v>334</v>
       </c>
       <c r="V65" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66">
@@ -13519,7 +14118,7 @@
         <v>289</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -13527,7 +14126,7 @@
         <v>373</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -13535,7 +14134,7 @@
         <v>335</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -13543,7 +14142,7 @@
         <v>430</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -13551,7 +14150,7 @@
         <v>325</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -13559,7 +14158,7 @@
         <v>431</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -13567,7 +14166,7 @@
         <v>282</v>
       </c>
       <c r="V72" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -13575,7 +14174,7 @@
         <v>364</v>
       </c>
       <c r="V73" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74">
@@ -13583,7 +14182,7 @@
         <v>300</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75">
@@ -13591,7 +14190,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -13599,7 +14198,7 @@
         <v>311</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -13607,7 +14206,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -13615,7 +14214,7 @@
         <v>352</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -13623,7 +14222,7 @@
         <v>290</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -13631,7 +14230,7 @@
         <v>301</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -13639,7 +14238,7 @@
         <v>307</v>
       </c>
       <c r="V81" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -13647,7 +14246,7 @@
         <v>296</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83">
@@ -13655,7 +14254,7 @@
         <v>291</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -13663,7 +14262,7 @@
         <v>308</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -13671,7 +14270,7 @@
         <v>292</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -13679,7 +14278,7 @@
         <v>293</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -13687,7 +14286,7 @@
         <v>326</v>
       </c>
       <c r="V87" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -13695,7 +14294,7 @@
         <v>332</v>
       </c>
       <c r="V88" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89">
@@ -13703,7 +14302,7 @@
         <v>315</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90">
@@ -13711,7 +14310,7 @@
         <v>360</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -13719,7 +14318,7 @@
         <v>297</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -13727,141 +14326,146 @@
         <v>298</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9170" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9664" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1663,6 +1664,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1695,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="297" x14ac:knownFonts="1">
+  <fonts count="313" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3549,8 +3574,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6323,8 +6449,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11438,6 +11717,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11446,7 +12007,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="339">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12389,52 +12950,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="474" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="480" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="483" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="486" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12760,7 +13369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12809,48 +13418,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>259</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>420</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>441</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>434</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>377</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>416</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>443</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12892,48 +13504,51 @@
         <v>450</v>
       </c>
       <c r="M2" t="s">
+        <v>535</v>
+      </c>
+      <c r="N2" t="s">
         <v>433</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>451</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>273</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>421</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>442</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>440</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>401</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>417</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>453</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12960,7 +13575,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>533</v>
       </c>
       <c r="I3" t="s">
         <v>369</v>
@@ -12974,43 +13589,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>536</v>
+      </c>
+      <c r="O3" t="s">
         <v>452</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>260</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>422</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>436</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>402</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>418</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>384</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -13033,6 +13651,9 @@
       <c r="G4" t="s">
         <v>470</v>
       </c>
+      <c r="H4" t="s">
+        <v>534</v>
+      </c>
       <c r="I4" t="s">
         <v>370</v>
       </c>
@@ -13045,43 +13666,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>537</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>261</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>423</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>437</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>378</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>419</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>374</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>444</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -13113,40 +13737,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>262</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>424</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>438</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>379</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>375</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>445</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13175,37 +13799,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>263</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>411</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>425</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>381</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>465</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>446</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -13231,37 +13855,37 @@
       <c r="L7" t="s">
         <v>336</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>264</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>435</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>426</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>380</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>466</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>447</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -13287,34 +13911,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>265</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>427</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>382</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>448</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13340,25 +13964,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>266</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>428</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>383</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>530</v>
       </c>
     </row>
@@ -13381,22 +14005,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>454</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>267</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>429</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>277</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>531</v>
       </c>
     </row>
@@ -13419,19 +14043,19 @@
       <c r="L11" t="s">
         <v>528</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>268</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>278</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>279</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13454,25 +14078,25 @@
       <c r="L12" t="s">
         <v>461</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>269</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>532</v>
       </c>
       <c r="D13" t="s">
         <v>361</v>
@@ -13489,25 +14113,25 @@
       <c r="L13" t="s">
         <v>527</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>274</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>346</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -13524,22 +14148,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>270</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -13553,22 +14177,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>271</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
         <v>405</v>
@@ -13582,19 +14206,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>272</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>406</v>
@@ -13605,16 +14229,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D18" t="s">
         <v>432</v>
@@ -13625,13 +14249,13 @@
       <c r="J18" t="s">
         <v>400</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -13642,13 +14266,13 @@
       <c r="J19" t="s">
         <v>526</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -13659,13 +14283,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
         <v>276</v>
@@ -13676,13 +14300,13 @@
       <c r="J21" t="s">
         <v>412</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>416</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -13693,13 +14317,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>341</v>
@@ -13710,13 +14334,13 @@
       <c r="J23" t="s">
         <v>460</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -13727,13 +14351,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>468</v>
@@ -13744,13 +14368,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -13758,13 +14382,13 @@
       <c r="F26" t="s">
         <v>302</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -13772,18 +14396,21 @@
       <c r="F27" t="s">
         <v>286</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>524</v>
       </c>
       <c r="F28" t="s">
         <v>303</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -13794,7 +14421,7 @@
       <c r="F29" t="s">
         <v>304</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -13805,7 +14432,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -13816,7 +14443,7 @@
       <c r="F31" t="s">
         <v>295</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13827,7 +14454,7 @@
       <c r="F32" t="s">
         <v>305</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13838,7 +14465,7 @@
       <c r="F33" t="s">
         <v>280</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13849,7 +14476,7 @@
       <c r="F34" t="s">
         <v>350</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13860,7 +14487,7 @@
       <c r="F35" t="s">
         <v>328</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13871,7 +14498,7 @@
       <c r="F36" t="s">
         <v>281</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>358</v>
       </c>
     </row>
@@ -13882,7 +14509,7 @@
       <c r="F37" t="s">
         <v>329</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>455</v>
       </c>
     </row>
@@ -13893,7 +14520,7 @@
       <c r="F38" t="s">
         <v>287</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>413</v>
       </c>
     </row>
@@ -13901,7 +14528,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13909,7 +14536,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13917,7 +14544,7 @@
       <c r="F41" t="s">
         <v>309</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13925,7 +14552,7 @@
       <c r="F42" t="s">
         <v>320</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13933,7 +14560,7 @@
       <c r="F43" t="s">
         <v>321</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13941,7 +14568,7 @@
       <c r="F44" t="s">
         <v>363</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13949,7 +14576,7 @@
       <c r="F45" t="s">
         <v>362</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>462</v>
       </c>
     </row>
@@ -13957,7 +14584,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -13965,7 +14592,7 @@
       <c r="F47" t="s">
         <v>322</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13973,7 +14600,7 @@
       <c r="F48" t="s">
         <v>359</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13981,7 +14608,7 @@
       <c r="F49" t="s">
         <v>388</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13989,7 +14616,7 @@
       <c r="F50" t="s">
         <v>323</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13997,475 +14624,485 @@
       <c r="F51" t="s">
         <v>376</v>
       </c>
-      <c r="V51" t="s">
-        <v>519</v>
+      <c r="W51" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>351</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>288</v>
       </c>
-      <c r="V53" t="s">
-        <v>366</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>312</v>
       </c>
-      <c r="V54" t="s">
-        <v>512</v>
+      <c r="W54" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>313</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>314</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>324</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>333</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>357</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>330</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>331</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>389</v>
       </c>
-      <c r="V62" t="s">
-        <v>458</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>390</v>
       </c>
-      <c r="V63" t="s">
-        <v>529</v>
+      <c r="W63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>365</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>334</v>
       </c>
-      <c r="V65" t="s">
-        <v>409</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>289</v>
       </c>
-      <c r="V66" t="s">
-        <v>463</v>
+      <c r="W66" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>373</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>335</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>430</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>325</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>431</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>282</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>364</v>
       </c>
-      <c r="V73" t="s">
-        <v>474</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>300</v>
       </c>
-      <c r="V74" t="s">
-        <v>523</v>
+      <c r="W74" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>306</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>311</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>449</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>352</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>290</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>301</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>307</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>296</v>
       </c>
-      <c r="V82" t="s">
-        <v>473</v>
+      <c r="W82" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>291</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>308</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>292</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>293</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>326</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>332</v>
       </c>
-      <c r="V88" t="s">
-        <v>456</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>315</v>
       </c>
-      <c r="V89" t="s">
-        <v>457</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>360</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>297</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>298</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9664" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10158" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1688,6 +1688,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1698,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="313" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3675,8 +3678,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6602,8 +6706,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11999,6 +12256,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12007,7 +12546,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="355">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12998,52 +13537,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="300" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="301" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="303" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14301,7 +14888,7 @@
         <v>412</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10158" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10652" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1698,7 +1698,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="345" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3779,8 +3779,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6859,8 +6960,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12538,6 +12792,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12546,7 +13082,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="371">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13585,52 +14121,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10652" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12140" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1691,6 +1692,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1714,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="345" x14ac:knownFonts="1">
+  <fonts count="393" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3880,8 +3896,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7113,8 +7432,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13074,6 +13852,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13082,7 +14706,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="419">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14169,52 +15793,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="347" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="348" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="351" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="363" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="364" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14540,7 +16308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14562,78 +16330,81 @@
         <v>515</v>
       </c>
       <c r="D1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>367</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>532</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>259</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>420</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>441</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>434</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>377</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>416</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>443</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -14648,78 +16419,81 @@
         <v>518</v>
       </c>
       <c r="D2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>469</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>522</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>336</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>404</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>450</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>535</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>433</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>451</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>421</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>442</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>440</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>401</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>417</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>453</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14734,1546 +16508,1558 @@
         <v>517</v>
       </c>
       <c r="D3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" t="s">
         <v>510</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>385</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>533</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>369</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>361</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>354</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>536</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>452</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>422</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>436</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>402</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>418</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>384</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
         <v>394</v>
       </c>
       <c r="D4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>407</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>470</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>534</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>370</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>258</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>355</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>537</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>261</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>423</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>437</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>378</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>419</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>374</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>444</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>395</v>
       </c>
       <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" t="s">
         <v>511</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>459</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>356</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>508</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>371</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>513</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>262</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>424</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>438</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>379</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>375</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>445</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>396</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>408</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>471</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>368</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>263</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>411</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>425</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>381</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>465</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>446</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>397</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>386</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>467</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>336</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>264</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>435</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>426</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>380</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>466</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>447</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>398</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>339</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>387</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>348</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>265</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>427</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>382</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>448</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>399</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>327</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>349</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>266</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>428</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>383</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s">
         <v>336</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>372</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>472</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>410</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>454</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>267</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>429</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>277</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>294</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>342</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>528</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>268</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>278</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>279</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
         <v>340</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>283</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>343</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>269</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>532</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>361</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>344</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>527</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>274</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>346</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>284</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>345</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>270</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>285</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>509</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>271</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>405</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>338</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>272</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" t="s">
         <v>406</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>432</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>400</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>441</v>
-      </c>
-      <c r="D19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>316</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>526</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>317</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>377</v>
-      </c>
-      <c r="D21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" t="s">
         <v>276</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>318</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>412</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>416</v>
-      </c>
-      <c r="D22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>319</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" t="s">
         <v>341</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>310</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>460</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>299</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>468</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>302</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>443</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>286</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" t="s">
+        <v>303</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>524</v>
-      </c>
-      <c r="F28" t="s">
-        <v>303</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>525</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>304</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>439</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>295</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>305</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>280</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>350</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>328</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>281</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>329</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>287</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>309</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>320</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>321</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>363</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>362</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>322</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>359</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>388</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>323</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>376</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>351</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>288</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>312</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>313</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>314</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>324</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>333</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>357</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>331</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>389</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>390</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>365</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>334</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>289</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>373</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>335</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>430</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>325</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>431</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>282</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>364</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>300</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>306</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>311</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>449</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>352</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>290</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>301</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>307</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>296</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>291</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>308</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>292</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>293</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>326</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>332</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>315</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>360</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>297</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>298</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -47,7 +47,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12140" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12645" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1707,6 +1707,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1729,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="393" x14ac:knownFonts="1">
+  <fonts count="409" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4199,8 +4214,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7891,8 +8007,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14698,6 +14967,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14706,7 +15257,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="435">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15937,52 +16488,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="380" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16494,7 +17093,7 @@
         <v>453</v>
       </c>
       <c r="AC2" t="s">
-        <v>229</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
@@ -16577,7 +17176,7 @@
         <v>185</v>
       </c>
       <c r="AC3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -16657,7 +17256,7 @@
         <v>444</v>
       </c>
       <c r="AC4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -16725,7 +17324,7 @@
         <v>445</v>
       </c>
       <c r="AC5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -16784,7 +17383,7 @@
         <v>446</v>
       </c>
       <c r="AC6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -16840,7 +17439,7 @@
         <v>447</v>
       </c>
       <c r="AC7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -16893,7 +17492,7 @@
         <v>448</v>
       </c>
       <c r="AC8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
@@ -16937,7 +17536,7 @@
         <v>190</v>
       </c>
       <c r="AC9" t="s">
-        <v>530</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -16975,7 +17574,7 @@
         <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -17010,7 +17609,7 @@
         <v>279</v>
       </c>
       <c r="AC11" t="s">
-        <v>236</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12">
@@ -17045,7 +17644,7 @@
         <v>192</v>
       </c>
       <c r="AC12" t="s">
-        <v>237</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13">
@@ -17080,7 +17679,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>238</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14">
@@ -17114,6 +17713,9 @@
       <c r="AA14" t="s">
         <v>194</v>
       </c>
+      <c r="AC14" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -17143,6 +17745,9 @@
       <c r="AA15" t="s">
         <v>195</v>
       </c>
+      <c r="AC15" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -17169,6 +17774,9 @@
       <c r="AA16" t="s">
         <v>196</v>
       </c>
+      <c r="AC16" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -17189,6 +17797,9 @@
       <c r="AA17" t="s">
         <v>514</v>
       </c>
+      <c r="AC17" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -17205,6 +17816,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12645" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13154" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1722,6 +1722,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1741,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="409" x14ac:knownFonts="1">
+  <fonts count="425" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4315,8 +4327,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8160,8 +8273,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -8198,6 +8464,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15257,7 +15805,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="435">
+  <cellXfs count="451">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16536,52 +17084,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="396" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="399" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16907,7 +17503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17679,7 +18275,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14">
@@ -17714,7 +18310,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15">
@@ -17746,7 +18342,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16">
@@ -17775,7 +18371,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17">
@@ -17798,7 +18394,7 @@
         <v>514</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18">
@@ -17818,7 +18414,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19">
@@ -17837,6 +18433,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -17854,6 +18453,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -17871,6 +18473,9 @@
       <c r="X21" t="s">
         <v>540</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -18420,7 +19025,7 @@
         <v>290</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80">
@@ -18428,7 +19033,7 @@
         <v>301</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -18436,7 +19041,7 @@
         <v>307</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -18444,7 +19049,7 @@
         <v>296</v>
       </c>
       <c r="X82" t="s">
-        <v>539</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -18452,7 +19057,7 @@
         <v>291</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84">
@@ -18460,7 +19065,7 @@
         <v>308</v>
       </c>
       <c r="X84" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -18468,7 +19073,7 @@
         <v>292</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86">
@@ -18476,7 +19081,7 @@
         <v>293</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -18484,7 +19089,7 @@
         <v>326</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -18492,7 +19097,7 @@
         <v>332</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -18500,7 +19105,7 @@
         <v>315</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -18508,7 +19113,7 @@
         <v>360</v>
       </c>
       <c r="X90" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -18516,7 +19121,7 @@
         <v>297</v>
       </c>
       <c r="X91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92">
@@ -18524,156 +19129,161 @@
         <v>298</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -33,7 +33,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13154" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14175" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1734,6 +1734,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1750,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="425" x14ac:knownFonts="1">
+  <fonts count="457" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4428,8 +4437,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8426,8 +8637,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -8464,6 +8981,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15805,7 +16886,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="483">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17132,52 +18213,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="411" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="412" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="427" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="428" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="431" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17503,7 +18680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18330,7 +19507,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>555</v>
       </c>
       <c r="Q15" t="s">
         <v>271</v>
@@ -18361,6 +19538,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>556</v>
+      </c>
       <c r="Q16" t="s">
         <v>272</v>
       </c>
@@ -18388,7 +19568,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>557</v>
       </c>
       <c r="AA17" t="s">
         <v>514</v>
@@ -18411,7 +19591,7 @@
         <v>400</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>554</v>
@@ -18431,7 +19611,7 @@
         <v>526</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -18451,7 +19631,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -18471,7 +19651,7 @@
         <v>412</v>
       </c>
       <c r="X21" t="s">
-        <v>540</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -18491,7 +19671,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
@@ -18508,7 +19688,7 @@
         <v>460</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -18525,7 +19705,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -18542,7 +19722,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -18556,7 +19736,7 @@
         <v>302</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -18570,7 +19750,7 @@
         <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -18584,7 +19764,7 @@
         <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29">
@@ -18598,7 +19778,7 @@
         <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -18609,7 +19789,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -18620,7 +19800,7 @@
         <v>295</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -18631,7 +19811,7 @@
         <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -18642,7 +19822,7 @@
         <v>280</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -18653,7 +19833,7 @@
         <v>350</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -18664,7 +19844,7 @@
         <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -18675,7 +19855,7 @@
         <v>281</v>
       </c>
       <c r="X36" t="s">
-        <v>358</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -18686,7 +19866,7 @@
         <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>455</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
@@ -18697,7 +19877,7 @@
         <v>287</v>
       </c>
       <c r="X38" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39">
@@ -18705,7 +19885,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
@@ -18713,7 +19893,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -18721,7 +19901,7 @@
         <v>309</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -18729,7 +19909,7 @@
         <v>320</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -18737,7 +19917,7 @@
         <v>321</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -18745,7 +19925,7 @@
         <v>363</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -18753,7 +19933,7 @@
         <v>362</v>
       </c>
       <c r="X45" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -18761,7 +19941,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47">
@@ -18769,7 +19949,7 @@
         <v>322</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -18777,7 +19957,7 @@
         <v>359</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -18785,7 +19965,7 @@
         <v>388</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -18793,7 +19973,7 @@
         <v>323</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -18801,7 +19981,7 @@
         <v>376</v>
       </c>
       <c r="X51" t="s">
-        <v>538</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -18809,7 +19989,7 @@
         <v>351</v>
       </c>
       <c r="X52" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53">
@@ -18817,7 +19997,7 @@
         <v>288</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54">
@@ -18825,7 +20005,7 @@
         <v>312</v>
       </c>
       <c r="X54" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -18833,7 +20013,7 @@
         <v>313</v>
       </c>
       <c r="X55" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56">
@@ -18841,7 +20021,7 @@
         <v>314</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57">
@@ -18849,7 +20029,7 @@
         <v>324</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -18857,7 +20037,7 @@
         <v>333</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -18865,7 +20045,7 @@
         <v>357</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -18873,7 +20053,7 @@
         <v>330</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -18881,7 +20061,7 @@
         <v>331</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -18889,7 +20069,7 @@
         <v>389</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -18897,7 +20077,7 @@
         <v>390</v>
       </c>
       <c r="X63" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -18905,7 +20085,7 @@
         <v>365</v>
       </c>
       <c r="X64" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65">
@@ -18913,7 +20093,7 @@
         <v>334</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66">
@@ -18921,7 +20101,7 @@
         <v>289</v>
       </c>
       <c r="X66" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -18929,7 +20109,7 @@
         <v>373</v>
       </c>
       <c r="X67" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68">
@@ -18937,7 +20117,7 @@
         <v>335</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69">
@@ -18945,7 +20125,7 @@
         <v>430</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -18953,7 +20133,7 @@
         <v>325</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -18961,7 +20141,7 @@
         <v>431</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -18969,7 +20149,7 @@
         <v>282</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -18977,7 +20157,7 @@
         <v>364</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -18985,7 +20165,7 @@
         <v>300</v>
       </c>
       <c r="X74" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -18993,7 +20173,7 @@
         <v>306</v>
       </c>
       <c r="X75" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76">
@@ -19001,7 +20181,7 @@
         <v>311</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77">
@@ -19009,7 +20189,7 @@
         <v>449</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -19017,7 +20197,7 @@
         <v>352</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -19025,7 +20205,7 @@
         <v>290</v>
       </c>
       <c r="X79" t="s">
-        <v>551</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -19033,7 +20213,7 @@
         <v>301</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81">
@@ -19041,7 +20221,7 @@
         <v>307</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -19049,7 +20229,7 @@
         <v>296</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -19057,7 +20237,7 @@
         <v>291</v>
       </c>
       <c r="X83" t="s">
-        <v>539</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -19065,7 +20245,7 @@
         <v>308</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85">
@@ -19073,7 +20253,7 @@
         <v>292</v>
       </c>
       <c r="X85" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -19081,7 +20261,7 @@
         <v>293</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87">
@@ -19089,7 +20269,7 @@
         <v>326</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -19097,7 +20277,7 @@
         <v>332</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -19105,7 +20285,7 @@
         <v>315</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -19113,7 +20293,7 @@
         <v>360</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -19121,7 +20301,7 @@
         <v>297</v>
       </c>
       <c r="X91" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -19129,161 +20309,166 @@
         <v>298</v>
       </c>
       <c r="X92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14175" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15198" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1743,6 +1743,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="457" x14ac:knownFonts="1">
+  <fonts count="489" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4639,8 +4642,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8943,8 +9148,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -8981,6 +9492,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16886,7 +17961,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="483">
+  <cellXfs count="515">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18309,52 +19384,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="443" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="444" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="459" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="460" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="463" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18680,7 +19851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20349,126 +21520,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15198" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15714" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1746,6 +1746,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1765,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="489" x14ac:knownFonts="1">
+  <fonts count="505" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4844,8 +4856,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9454,8 +9567,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -9492,6 +9758,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17961,7 +18509,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="531">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19480,52 +20028,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="476" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20281,6 +20877,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>559</v>
+      </c>
       <c r="G6" t="s">
         <v>408</v>
       </c>
@@ -20403,7 +21002,7 @@
         <v>348</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -20456,7 +21055,7 @@
         <v>349</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -20497,7 +21096,7 @@
         <v>472</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -20535,7 +21134,7 @@
         <v>342</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>561</v>
       </c>
       <c r="M11" t="s">
         <v>528</v>
@@ -20570,7 +21169,7 @@
         <v>343</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="M12" t="s">
         <v>461</v>
@@ -20605,7 +21204,7 @@
         <v>344</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>527</v>
@@ -20640,7 +21239,7 @@
         <v>345</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -20672,7 +21271,7 @@
         <v>285</v>
       </c>
       <c r="K15" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -20704,7 +21303,7 @@
         <v>338</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -20736,7 +21335,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>557</v>
@@ -20759,7 +21358,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -20779,7 +21378,7 @@
         <v>316</v>
       </c>
       <c r="K19" t="s">
-        <v>526</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -20799,7 +21398,7 @@
         <v>317</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -20819,7 +21418,7 @@
         <v>318</v>
       </c>
       <c r="K21" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -20839,7 +21438,7 @@
         <v>319</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>526</v>
       </c>
       <c r="X22" t="s">
         <v>540</v>
@@ -20856,7 +21455,7 @@
         <v>310</v>
       </c>
       <c r="K23" t="s">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -20873,7 +21472,7 @@
         <v>299</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -20890,7 +21489,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -20906,6 +21505,9 @@
       <c r="G26" t="s">
         <v>302</v>
       </c>
+      <c r="K26" t="s">
+        <v>460</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -20920,6 +21522,9 @@
       <c r="G27" t="s">
         <v>286</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -20933,6 +21538,9 @@
       </c>
       <c r="G28" t="s">
         <v>303</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>347</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15714" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16232" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1758,6 +1758,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1771,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="505" x14ac:knownFonts="1">
+  <fonts count="521" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4957,8 +4963,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9720,8 +9827,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -9758,6 +10018,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18509,7 +19051,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="547">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20076,52 +20618,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="491" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="492" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="495" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21598,7 +22188,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>280</v>
+        <v>563</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -21609,7 +22199,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -21620,7 +22210,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -21631,7 +22221,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -21642,7 +22232,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="X37" t="s">
         <v>358</v>
@@ -21653,7 +22243,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="X38" t="s">
         <v>455</v>
@@ -21661,7 +22251,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="X39" t="s">
         <v>413</v>
@@ -21669,7 +22259,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -21677,7 +22267,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -21685,7 +22275,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -21693,7 +22283,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -21701,7 +22291,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -21709,7 +22299,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -21717,7 +22307,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="X46" t="s">
         <v>462</v>
@@ -21725,7 +22315,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -21733,7 +22323,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -21741,7 +22331,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -21749,7 +22339,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -21757,7 +22347,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -21765,7 +22355,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="X52" t="s">
         <v>538</v>
@@ -21773,7 +22363,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="X53" t="s">
         <v>519</v>
@@ -21781,7 +22371,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -21789,7 +22379,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X55" t="s">
         <v>366</v>
@@ -21797,7 +22387,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X56" t="s">
         <v>512</v>
@@ -21805,7 +22395,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -21813,7 +22403,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -21821,7 +22411,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -21829,7 +22419,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -21837,7 +22427,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -21845,7 +22435,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -21853,7 +22443,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -21861,7 +22451,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="X64" t="s">
         <v>458</v>
@@ -21869,7 +22459,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="X65" t="s">
         <v>529</v>
@@ -21877,7 +22467,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -21885,7 +22475,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="X67" t="s">
         <v>409</v>
@@ -21893,7 +22483,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X68" t="s">
         <v>463</v>
@@ -21901,7 +22491,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -21909,7 +22499,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -21917,7 +22507,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -21925,7 +22515,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -21933,7 +22523,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -21941,7 +22531,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -21949,7 +22539,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="X75" t="s">
         <v>474</v>
@@ -21957,7 +22547,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="X76" t="s">
         <v>523</v>
@@ -21965,7 +22555,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -21973,7 +22563,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -21981,7 +22571,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -21989,7 +22579,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="X80" t="s">
         <v>551</v>
@@ -21997,7 +22587,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -22005,7 +22595,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -22013,7 +22603,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -22021,7 +22611,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="X84" t="s">
         <v>539</v>
@@ -22029,7 +22619,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -22037,7 +22627,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="X86" t="s">
         <v>473</v>
@@ -22045,7 +22635,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -22053,7 +22643,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -22061,7 +22651,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -22069,7 +22659,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -22077,7 +22667,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -22085,18 +22675,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="X92" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>297</v>
+      </c>
       <c r="X93" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>298</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16232" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17272" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1764,6 +1764,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1777,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="521" x14ac:knownFonts="1">
+  <fonts count="553" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5064,8 +5070,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="928">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9980,8 +10188,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -10018,6 +10566,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -19051,7 +20163,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="547">
+  <cellXfs count="579">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20666,52 +21778,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="507" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="508" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="511" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="523" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="524" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="527" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="529" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21037,7 +22245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22729,126 +23937,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17272" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17800" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1770,6 +1771,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1799,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="553" x14ac:knownFonts="1">
+  <fonts count="569" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5272,8 +5294,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="928">
+  <fills count="958">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10528,8 +10651,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -10566,6 +10859,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20163,7 +20738,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="579">
+  <cellXfs count="595">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21874,52 +22449,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="900" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="903" fontId="539" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="540" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="909" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="543" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="915" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="918" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="936" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="939" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="945" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="948" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="951" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="951" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22245,7 +22868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22297,51 +22920,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" t="s">
         <v>532</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>259</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>420</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>441</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>434</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>377</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>416</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>443</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22386,51 +23012,54 @@
         <v>450</v>
       </c>
       <c r="N2" t="s">
+        <v>568</v>
+      </c>
+      <c r="O2" t="s">
         <v>535</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>433</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>451</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>273</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>421</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>442</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>440</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>401</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>417</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>453</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -22475,45 +23104,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>569</v>
+      </c>
+      <c r="O3" t="s">
         <v>536</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>452</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>260</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>422</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>436</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>402</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>418</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>384</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22555,45 +23187,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>570</v>
+      </c>
+      <c r="O4" t="s">
         <v>537</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>261</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>423</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>437</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>378</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>419</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>374</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>444</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22628,40 +23263,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>262</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>424</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>438</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>379</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>375</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>445</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22693,37 +23331,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>263</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>411</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>425</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>381</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>465</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>446</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22749,37 +23390,40 @@
       <c r="M7" t="s">
         <v>336</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>264</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>435</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>426</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>380</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>466</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>447</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22805,34 +23449,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>265</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>427</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>382</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>448</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22858,25 +23502,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>266</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>428</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>383</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22899,22 +23543,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>454</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>267</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>429</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>277</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>530</v>
       </c>
     </row>
@@ -22937,19 +23581,19 @@
       <c r="M11" t="s">
         <v>528</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>268</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>278</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>279</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>547</v>
       </c>
     </row>
@@ -22972,19 +23616,19 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>269</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>548</v>
       </c>
     </row>
@@ -23007,25 +23651,25 @@
       <c r="M13" t="s">
         <v>527</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>274</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>346</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -23042,25 +23686,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>270</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>532</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -23074,25 +23718,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>555</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>271</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>405</v>
@@ -23106,25 +23750,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>556</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>272</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>406</v>
@@ -23135,19 +23779,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>557</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>514</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
         <v>432</v>
@@ -23158,16 +23802,16 @@
       <c r="K18" t="s">
         <v>509</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -23178,16 +23822,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -23198,16 +23842,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E21" t="s">
         <v>276</v>
@@ -23218,16 +23862,16 @@
       <c r="K21" t="s">
         <v>400</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -23238,13 +23882,13 @@
       <c r="K22" t="s">
         <v>526</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
         <v>341</v>
@@ -23255,13 +23899,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -23272,13 +23916,13 @@
       <c r="K24" t="s">
         <v>412</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>468</v>
@@ -23289,13 +23933,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -23306,13 +23950,13 @@
       <c r="K26" t="s">
         <v>460</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -23323,13 +23967,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>524</v>
@@ -23340,13 +23984,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="E29" t="s">
         <v>525</v>
@@ -23354,18 +23998,21 @@
       <c r="G29" t="s">
         <v>304</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>439</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23376,7 +24023,7 @@
       <c r="G31" t="s">
         <v>295</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23387,7 +24034,7 @@
       <c r="G32" t="s">
         <v>305</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23398,7 +24045,7 @@
       <c r="G33" t="s">
         <v>563</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23409,7 +24056,7 @@
       <c r="G34" t="s">
         <v>280</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23420,7 +24067,7 @@
       <c r="G35" t="s">
         <v>350</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23431,7 +24078,7 @@
       <c r="G36" t="s">
         <v>328</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23442,7 +24089,7 @@
       <c r="G37" t="s">
         <v>281</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>358</v>
       </c>
     </row>
@@ -23453,7 +24100,7 @@
       <c r="G38" t="s">
         <v>329</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>455</v>
       </c>
     </row>
@@ -23461,7 +24108,7 @@
       <c r="G39" t="s">
         <v>287</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>413</v>
       </c>
     </row>
@@ -23469,7 +24116,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23477,7 +24124,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23485,7 +24132,7 @@
       <c r="G42" t="s">
         <v>309</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23493,7 +24140,7 @@
       <c r="G43" t="s">
         <v>320</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23501,7 +24148,7 @@
       <c r="G44" t="s">
         <v>321</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23509,7 +24156,7 @@
       <c r="G45" t="s">
         <v>363</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23517,7 +24164,7 @@
       <c r="G46" t="s">
         <v>362</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>462</v>
       </c>
     </row>
@@ -23525,7 +24172,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23533,7 +24180,7 @@
       <c r="G48" t="s">
         <v>322</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -23541,7 +24188,7 @@
       <c r="G49" t="s">
         <v>359</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23549,7 +24196,7 @@
       <c r="G50" t="s">
         <v>388</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23557,7 +24204,7 @@
       <c r="G51" t="s">
         <v>323</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23565,7 +24212,7 @@
       <c r="G52" t="s">
         <v>376</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>538</v>
       </c>
     </row>
@@ -23573,7 +24220,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>519</v>
       </c>
     </row>
@@ -23581,7 +24228,7 @@
       <c r="G54" t="s">
         <v>288</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23589,7 +24236,7 @@
       <c r="G55" t="s">
         <v>312</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>366</v>
       </c>
     </row>
@@ -23597,7 +24244,7 @@
       <c r="G56" t="s">
         <v>313</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>512</v>
       </c>
     </row>
@@ -23605,7 +24252,7 @@
       <c r="G57" t="s">
         <v>314</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23613,7 +24260,7 @@
       <c r="G58" t="s">
         <v>324</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23621,7 +24268,7 @@
       <c r="G59" t="s">
         <v>333</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23629,7 +24276,7 @@
       <c r="G60" t="s">
         <v>357</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23637,7 +24284,7 @@
       <c r="G61" t="s">
         <v>330</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23645,7 +24292,7 @@
       <c r="G62" t="s">
         <v>331</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23653,7 +24300,7 @@
       <c r="G63" t="s">
         <v>389</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23661,7 +24308,7 @@
       <c r="G64" t="s">
         <v>390</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>458</v>
       </c>
     </row>
@@ -23669,7 +24316,7 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>529</v>
       </c>
     </row>
@@ -23677,7 +24324,7 @@
       <c r="G66" t="s">
         <v>334</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -23685,7 +24332,7 @@
       <c r="G67" t="s">
         <v>289</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>409</v>
       </c>
     </row>
@@ -23693,7 +24340,7 @@
       <c r="G68" t="s">
         <v>373</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>463</v>
       </c>
     </row>
@@ -23701,7 +24348,7 @@
       <c r="G69" t="s">
         <v>335</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23709,7 +24356,7 @@
       <c r="G70" t="s">
         <v>430</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -23717,7 +24364,7 @@
       <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -23725,7 +24372,7 @@
       <c r="G72" t="s">
         <v>431</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -23733,7 +24380,7 @@
       <c r="G73" t="s">
         <v>282</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -23741,7 +24388,7 @@
       <c r="G74" t="s">
         <v>564</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -23749,7 +24396,7 @@
       <c r="G75" t="s">
         <v>364</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>474</v>
       </c>
     </row>
@@ -23757,7 +24404,7 @@
       <c r="G76" t="s">
         <v>300</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>523</v>
       </c>
     </row>
@@ -23765,7 +24412,7 @@
       <c r="G77" t="s">
         <v>306</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23773,7 +24420,7 @@
       <c r="G78" t="s">
         <v>311</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -23781,7 +24428,7 @@
       <c r="G79" t="s">
         <v>449</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -23789,7 +24436,7 @@
       <c r="G80" t="s">
         <v>352</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>551</v>
       </c>
     </row>
@@ -23797,7 +24444,7 @@
       <c r="G81" t="s">
         <v>290</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -23805,7 +24452,7 @@
       <c r="G82" t="s">
         <v>301</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -23813,7 +24460,7 @@
       <c r="G83" t="s">
         <v>307</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23821,7 +24468,7 @@
       <c r="G84" t="s">
         <v>296</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>539</v>
       </c>
     </row>
@@ -23829,7 +24476,7 @@
       <c r="G85" t="s">
         <v>291</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -23837,7 +24484,7 @@
       <c r="G86" t="s">
         <v>308</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>473</v>
       </c>
     </row>
@@ -23845,7 +24492,7 @@
       <c r="G87" t="s">
         <v>292</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -23853,7 +24500,7 @@
       <c r="G88" t="s">
         <v>293</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -23861,7 +24508,7 @@
       <c r="G89" t="s">
         <v>326</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -23869,7 +24516,7 @@
       <c r="G90" t="s">
         <v>332</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -23877,7 +24524,7 @@
       <c r="G91" t="s">
         <v>315</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -23885,7 +24532,7 @@
       <c r="G92" t="s">
         <v>360</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>456</v>
       </c>
     </row>
@@ -23893,7 +24540,7 @@
       <c r="G93" t="s">
         <v>297</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>457</v>
       </c>
     </row>
@@ -23901,172 +24548,172 @@
       <c r="G94" t="s">
         <v>298</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17800" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19926" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1792,6 +1792,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1811,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="569" x14ac:knownFonts="1">
+  <fonts count="633" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5395,8 +5407,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="958">
+  <fills count="1078">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10821,8 +11237,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -10859,6 +11955,1134 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20738,7 +22962,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="595">
+  <cellXfs count="659">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22497,52 +24721,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="930" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="933" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="555" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="936" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="936" fontId="556" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="939" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="939" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="559" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="945" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="948" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="951" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="564" fillId="951" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="945" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="948" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="960" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="963" fontId="571" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="966" fontId="572" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="969" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="575" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="975" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="978" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="990" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="993" fontId="587" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="996" fontId="588" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="999" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="591" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="1005" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1008" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1020" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1023" fontId="603" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1026" fontId="604" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1029" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="607" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1035" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1038" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23264,7 +25680,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -23332,7 +25748,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -23391,7 +25807,7 @@
         <v>336</v>
       </c>
       <c r="N7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -23449,6 +25865,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>571</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -23502,6 +25921,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>572</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -23543,6 +25965,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>573</v>
+      </c>
       <c r="Q10" t="s">
         <v>454</v>
       </c>
@@ -23931,7 +26356,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -23948,7 +26373,7 @@
         <v>302</v>
       </c>
       <c r="K26" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -23965,7 +26390,7 @@
         <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -23982,7 +26407,7 @@
         <v>303</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>347</v>
@@ -23997,6 +26422,9 @@
       </c>
       <c r="G29" t="s">
         <v>304</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19926" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20461" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1804,6 +1804,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1823,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="633" x14ac:knownFonts="1">
+  <fonts count="649" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5811,8 +5823,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1078">
+  <fills count="1108">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11917,8 +12030,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1123">
     <border>
       <left/>
       <right/>
@@ -11955,6 +12238,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22962,7 +23527,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="659">
+  <cellXfs count="675">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24913,52 +25478,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1050" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="618" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1053" fontId="619" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1056" fontId="620" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1059" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="623" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="625" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="627" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="628" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="629" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="630" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="631" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="632" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1065" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1068" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1089" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1095" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1098" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1101" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1101" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25490,7 +26103,7 @@
         <v>517</v>
       </c>
       <c r="D3" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="E3" t="s">
         <v>510</v>
@@ -25573,7 +26186,7 @@
         <v>394</v>
       </c>
       <c r="D4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -25656,7 +26269,7 @@
         <v>395</v>
       </c>
       <c r="D5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E5" t="s">
         <v>511</v>
@@ -25680,7 +26293,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -25726,6 +26339,9 @@
       <c r="B6" t="s">
         <v>396</v>
       </c>
+      <c r="D6" t="s">
+        <v>545</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -25748,7 +26364,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -25807,7 +26423,7 @@
         <v>336</v>
       </c>
       <c r="N7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -25866,7 +26482,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -25922,7 +26538,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -25966,7 +26582,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Q10" t="s">
         <v>454</v>
@@ -26006,6 +26622,9 @@
       <c r="M11" t="s">
         <v>528</v>
       </c>
+      <c r="N11" t="s">
+        <v>572</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -26041,6 +26660,9 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
+      <c r="N12" t="s">
+        <v>573</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -26356,7 +26978,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20461" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20998" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1816,6 +1816,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1829,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="649" x14ac:knownFonts="1">
+  <fonts count="665" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5924,8 +5930,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1108">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12200,8 +12307,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1123">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -12238,6 +12515,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -23527,7 +24086,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="675">
+  <cellXfs count="691">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25526,52 +26085,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1080" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1083" fontId="635" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1086" fontId="636" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1089" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1089" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="639" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="641" fillId="1095" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="642" fillId="1098" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="643" fillId="1101" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="644" fillId="1101" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="648" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1095" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1098" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1101" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1101" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="645" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1110" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1113" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1116" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1119" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1125" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1128" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1131" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1131" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25897,7 +26504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26283,6 +26890,9 @@
       <c r="H5" t="s">
         <v>508</v>
       </c>
+      <c r="I5" t="s">
+        <v>582</v>
+      </c>
       <c r="J5" t="s">
         <v>371</v>
       </c>
@@ -27159,7 +27769,7 @@
         <v>287</v>
       </c>
       <c r="Y39" t="s">
-        <v>413</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40">
@@ -27167,7 +27777,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41">
@@ -27175,7 +27785,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -27183,7 +27793,7 @@
         <v>309</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -27191,7 +27801,7 @@
         <v>320</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -27199,7 +27809,7 @@
         <v>321</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -27207,7 +27817,7 @@
         <v>363</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -27215,7 +27825,7 @@
         <v>362</v>
       </c>
       <c r="Y46" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -27223,7 +27833,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
@@ -27231,7 +27841,7 @@
         <v>322</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -27239,7 +27849,7 @@
         <v>359</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -27247,7 +27857,7 @@
         <v>388</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -27255,7 +27865,7 @@
         <v>323</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -27263,7 +27873,7 @@
         <v>376</v>
       </c>
       <c r="Y52" t="s">
-        <v>538</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -27271,7 +27881,7 @@
         <v>351</v>
       </c>
       <c r="Y53" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
@@ -27279,7 +27889,7 @@
         <v>288</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55">
@@ -27287,7 +27897,7 @@
         <v>312</v>
       </c>
       <c r="Y55" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -27295,7 +27905,7 @@
         <v>313</v>
       </c>
       <c r="Y56" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57">
@@ -27303,7 +27913,7 @@
         <v>314</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58">
@@ -27311,7 +27921,7 @@
         <v>324</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -27319,7 +27929,7 @@
         <v>333</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -27327,7 +27937,7 @@
         <v>357</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -27335,7 +27945,7 @@
         <v>330</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -27343,7 +27953,7 @@
         <v>331</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -27351,7 +27961,7 @@
         <v>389</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -27359,7 +27969,7 @@
         <v>390</v>
       </c>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -27367,7 +27977,7 @@
         <v>365</v>
       </c>
       <c r="Y65" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66">
@@ -27375,7 +27985,7 @@
         <v>334</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67">
@@ -27383,7 +27993,7 @@
         <v>289</v>
       </c>
       <c r="Y67" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -27391,7 +28001,7 @@
         <v>373</v>
       </c>
       <c r="Y68" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69">
@@ -27399,7 +28009,7 @@
         <v>335</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70">
@@ -27407,7 +28017,7 @@
         <v>430</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -27415,7 +28025,7 @@
         <v>325</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -27423,7 +28033,7 @@
         <v>431</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -27431,7 +28041,7 @@
         <v>282</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -27439,7 +28049,7 @@
         <v>564</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -27447,7 +28057,7 @@
         <v>364</v>
       </c>
       <c r="Y75" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -27455,7 +28065,7 @@
         <v>300</v>
       </c>
       <c r="Y76" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77">
@@ -27463,7 +28073,7 @@
         <v>306</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78">
@@ -27471,7 +28081,7 @@
         <v>311</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -27479,7 +28089,7 @@
         <v>449</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -27487,7 +28097,7 @@
         <v>352</v>
       </c>
       <c r="Y80" t="s">
-        <v>551</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -27495,7 +28105,7 @@
         <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82">
@@ -27503,7 +28113,7 @@
         <v>301</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -27511,7 +28121,7 @@
         <v>307</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -27519,7 +28129,7 @@
         <v>296</v>
       </c>
       <c r="Y84" t="s">
-        <v>539</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -27527,7 +28137,7 @@
         <v>291</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86">
@@ -27535,7 +28145,7 @@
         <v>308</v>
       </c>
       <c r="Y86" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -27543,7 +28153,7 @@
         <v>292</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88">
@@ -27551,7 +28161,7 @@
         <v>293</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -27559,7 +28169,7 @@
         <v>326</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -27567,7 +28177,7 @@
         <v>332</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -27575,7 +28185,7 @@
         <v>315</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -27583,7 +28193,7 @@
         <v>360</v>
       </c>
       <c r="Y92" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -27591,7 +28201,7 @@
         <v>297</v>
       </c>
       <c r="Y93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94">
@@ -27599,171 +28209,176 @@
         <v>298</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>566</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -22,13 +22,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20998" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21545" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1822,6 +1822,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1862,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="665" x14ac:knownFonts="1">
+  <fonts count="681" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6031,8 +6064,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12477,8 +12611,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1183">
     <border>
       <left/>
       <right/>
@@ -23900,6 +24187,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -24086,7 +24699,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="691">
+  <cellXfs count="707">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26133,52 +26746,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1110" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1110" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1113" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1113" fontId="651" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1116" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1116" fontId="652" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1119" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1119" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="655" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="1125" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="1128" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="1131" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="660" fillId="1131" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="661" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="1134" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="1119" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1125" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1128" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1131" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1131" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1140" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1143" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1146" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1149" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1155" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1146" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1158" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1158" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26504,7 +27165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27026,6 +27687,9 @@
       <c r="H7" t="s">
         <v>467</v>
       </c>
+      <c r="J7" t="s">
+        <v>586</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -27066,7 +27730,7 @@
         <v>447</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8">
@@ -27122,7 +27786,7 @@
         <v>448</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9">
@@ -27169,7 +27833,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10">
@@ -27210,7 +27874,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>530</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -27248,7 +27912,7 @@
         <v>279</v>
       </c>
       <c r="AD11" t="s">
-        <v>547</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -27268,7 +27932,7 @@
         <v>410</v>
       </c>
       <c r="M12" t="s">
-        <v>461</v>
+        <v>587</v>
       </c>
       <c r="N12" t="s">
         <v>573</v>
@@ -27286,7 +27950,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>548</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -27306,7 +27970,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -27321,7 +27985,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14">
@@ -27341,7 +28005,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>527</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -27356,7 +28020,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15">
@@ -27373,7 +28037,7 @@
         <v>562</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>555</v>
@@ -27388,7 +28052,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16">
@@ -27405,7 +28069,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>556</v>
@@ -27420,7 +28084,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17">
@@ -27436,6 +28100,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>557</v>
       </c>
@@ -27443,7 +28110,7 @@
         <v>514</v>
       </c>
       <c r="AD17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18">
@@ -27463,7 +28130,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19">
@@ -27483,7 +28150,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20">
@@ -27503,7 +28170,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21">
@@ -27523,7 +28190,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22">
@@ -27542,6 +28209,9 @@
       <c r="Y22" t="s">
         <v>540</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -27559,6 +28229,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -27576,6 +28249,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -27593,6 +28269,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -27610,6 +28289,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -27627,6 +28309,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -27857,7 +28542,7 @@
         <v>388</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51">
@@ -27865,7 +28550,7 @@
         <v>323</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -27873,7 +28558,7 @@
         <v>376</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -27881,7 +28566,7 @@
         <v>351</v>
       </c>
       <c r="Y53" t="s">
-        <v>538</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -27889,7 +28574,7 @@
         <v>288</v>
       </c>
       <c r="Y54" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55">
@@ -27897,7 +28582,7 @@
         <v>312</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56">
@@ -27905,7 +28590,7 @@
         <v>313</v>
       </c>
       <c r="Y56" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -27913,7 +28598,7 @@
         <v>314</v>
       </c>
       <c r="Y57" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58">
@@ -27921,7 +28606,7 @@
         <v>324</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59">
@@ -27929,7 +28614,7 @@
         <v>333</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -27937,7 +28622,7 @@
         <v>357</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -27945,7 +28630,7 @@
         <v>330</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -27953,7 +28638,7 @@
         <v>331</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -27961,7 +28646,7 @@
         <v>389</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -27969,7 +28654,7 @@
         <v>390</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -27977,7 +28662,7 @@
         <v>365</v>
       </c>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -27985,7 +28670,7 @@
         <v>334</v>
       </c>
       <c r="Y66" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67">
@@ -27993,15 +28678,15 @@
         <v>289</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>373</v>
+        <v>584</v>
       </c>
       <c r="Y68" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -28009,7 +28694,7 @@
         <v>335</v>
       </c>
       <c r="Y69" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70">
@@ -28017,7 +28702,7 @@
         <v>430</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
@@ -28025,7 +28710,7 @@
         <v>325</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -28033,7 +28718,7 @@
         <v>431</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -28041,7 +28726,7 @@
         <v>282</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -28049,7 +28734,7 @@
         <v>564</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -28057,7 +28742,7 @@
         <v>364</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -28065,7 +28750,7 @@
         <v>300</v>
       </c>
       <c r="Y76" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -28073,7 +28758,7 @@
         <v>306</v>
       </c>
       <c r="Y77" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
@@ -28081,7 +28766,7 @@
         <v>311</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79">
@@ -28089,7 +28774,7 @@
         <v>449</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -28097,7 +28782,7 @@
         <v>352</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -28105,7 +28790,7 @@
         <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>551</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -28113,7 +28798,7 @@
         <v>301</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83">
@@ -28121,7 +28806,7 @@
         <v>307</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -28129,256 +28814,264 @@
         <v>296</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="Y85" t="s">
-        <v>539</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="Y87" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="Y93" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>298</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>566</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -41,17 +41,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21545" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22096" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1855,6 +1856,15 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1872,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="681" x14ac:knownFonts="1">
+  <fonts count="697" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6165,8 +6175,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12764,8 +12875,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1183">
+  <borders count="1215">
     <border>
       <left/>
       <right/>
@@ -24187,6 +24451,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -24699,7 +25289,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="707">
+  <cellXfs count="723">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26794,52 +27384,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="1140" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1140" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1143" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1143" fontId="667" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="1146" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1146" fontId="668" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1149" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1149" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="671" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="673" fillId="1155" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="674" fillId="1146" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="675" fillId="1158" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="676" fillId="1158" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1155" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1146" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1158" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1158" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1161" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1167" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1170" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1173" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1176" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1182" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1173" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27165,7 +27803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27250,21 +27888,24 @@
         <v>416</v>
       </c>
       <c r="Y1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>443</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27342,21 +27983,24 @@
         <v>417</v>
       </c>
       <c r="Y2" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>453</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -27427,22 +28071,22 @@
       <c r="X3" t="s">
         <v>418</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>384</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27510,22 +28154,22 @@
       <c r="X4" t="s">
         <v>419</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>374</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>444</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -27584,22 +28228,22 @@
       <c r="W5" t="s">
         <v>379</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>375</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>445</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -27652,22 +28296,22 @@
       <c r="W6" t="s">
         <v>381</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>446</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -27714,22 +28358,22 @@
       <c r="W7" t="s">
         <v>380</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>447</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>589</v>
       </c>
     </row>
@@ -27770,22 +28414,22 @@
       <c r="W8" t="s">
         <v>382</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>448</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>590</v>
       </c>
     </row>
@@ -27826,13 +28470,13 @@
       <c r="W9" t="s">
         <v>383</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>591</v>
       </c>
     </row>
@@ -27867,13 +28511,13 @@
       <c r="T10" t="s">
         <v>429</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>277</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -27905,13 +28549,13 @@
       <c r="R11" t="s">
         <v>268</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>278</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>279</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27943,13 +28587,13 @@
       <c r="R12" t="s">
         <v>269</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -27978,13 +28622,13 @@
       <c r="R13" t="s">
         <v>274</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>346</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>530</v>
       </c>
     </row>
@@ -28013,13 +28657,13 @@
       <c r="R14" t="s">
         <v>270</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>547</v>
       </c>
     </row>
@@ -28045,13 +28689,13 @@
       <c r="R15" t="s">
         <v>271</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>548</v>
       </c>
     </row>
@@ -28077,13 +28721,13 @@
       <c r="R16" t="s">
         <v>272</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>552</v>
       </c>
     </row>
@@ -28103,13 +28747,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>557</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>514</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>553</v>
       </c>
     </row>
@@ -28126,10 +28770,10 @@
       <c r="K18" t="s">
         <v>509</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>531</v>
       </c>
     </row>
@@ -28146,10 +28790,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>549</v>
       </c>
     </row>
@@ -28166,10 +28810,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>550</v>
       </c>
     </row>
@@ -28186,10 +28830,10 @@
       <c r="K21" t="s">
         <v>400</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>554</v>
       </c>
     </row>
@@ -28198,7 +28842,7 @@
         <v>434</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>596</v>
       </c>
       <c r="G22" t="s">
         <v>319</v>
@@ -28206,10 +28850,10 @@
       <c r="K22" t="s">
         <v>526</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>540</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -28218,7 +28862,7 @@
         <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>341</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>310</v>
@@ -28226,10 +28870,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>592</v>
       </c>
     </row>
@@ -28238,7 +28882,7 @@
         <v>416</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="G24" t="s">
         <v>299</v>
@@ -28246,19 +28890,19 @@
       <c r="K24" t="s">
         <v>412</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -28266,19 +28910,19 @@
       <c r="K25" t="s">
         <v>579</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="G26" t="s">
         <v>302</v>
@@ -28286,19 +28930,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>286</v>
@@ -28306,19 +28950,19 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>524</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>303</v>
@@ -28326,16 +28970,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>443</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G29" t="s">
         <v>304</v>
@@ -28343,117 +28987,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>305</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>563</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>280</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>350</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>328</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>281</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>329</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>287</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>583</v>
       </c>
     </row>
@@ -28461,7 +29111,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>413</v>
       </c>
     </row>
@@ -28469,7 +29119,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -28477,7 +29127,7 @@
       <c r="G42" t="s">
         <v>309</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -28485,7 +29135,7 @@
       <c r="G43" t="s">
         <v>320</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -28493,7 +29143,7 @@
       <c r="G44" t="s">
         <v>321</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -28501,7 +29151,7 @@
       <c r="G45" t="s">
         <v>363</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28509,7 +29159,7 @@
       <c r="G46" t="s">
         <v>362</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -28517,7 +29167,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -28525,7 +29175,7 @@
       <c r="G48" t="s">
         <v>322</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -28533,7 +29183,7 @@
       <c r="G49" t="s">
         <v>359</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -28541,7 +29191,7 @@
       <c r="G50" t="s">
         <v>388</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>588</v>
       </c>
     </row>
@@ -28549,7 +29199,7 @@
       <c r="G51" t="s">
         <v>323</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -28557,7 +29207,7 @@
       <c r="G52" t="s">
         <v>376</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -28565,7 +29215,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -28573,7 +29223,7 @@
       <c r="G54" t="s">
         <v>288</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>538</v>
       </c>
     </row>
@@ -28581,7 +29231,7 @@
       <c r="G55" t="s">
         <v>312</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>519</v>
       </c>
     </row>
@@ -28589,7 +29239,7 @@
       <c r="G56" t="s">
         <v>313</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -28597,7 +29247,7 @@
       <c r="G57" t="s">
         <v>314</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>366</v>
       </c>
     </row>
@@ -28605,7 +29255,7 @@
       <c r="G58" t="s">
         <v>324</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>512</v>
       </c>
     </row>
@@ -28613,7 +29263,7 @@
       <c r="G59" t="s">
         <v>333</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -28621,7 +29271,7 @@
       <c r="G60" t="s">
         <v>357</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -28629,7 +29279,7 @@
       <c r="G61" t="s">
         <v>330</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -28637,7 +29287,7 @@
       <c r="G62" t="s">
         <v>331</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -28645,7 +29295,7 @@
       <c r="G63" t="s">
         <v>389</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -28653,7 +29303,7 @@
       <c r="G64" t="s">
         <v>390</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -28661,7 +29311,7 @@
       <c r="G65" t="s">
         <v>365</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -28669,7 +29319,7 @@
       <c r="G66" t="s">
         <v>334</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -28677,7 +29327,7 @@
       <c r="G67" t="s">
         <v>289</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>529</v>
       </c>
     </row>
@@ -28685,7 +29335,7 @@
       <c r="G68" t="s">
         <v>584</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -28693,7 +29343,7 @@
       <c r="G69" t="s">
         <v>335</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>409</v>
       </c>
     </row>
@@ -28701,7 +29351,7 @@
       <c r="G70" t="s">
         <v>430</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -28709,7 +29359,7 @@
       <c r="G71" t="s">
         <v>325</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -28717,7 +29367,7 @@
       <c r="G72" t="s">
         <v>431</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -28725,7 +29375,7 @@
       <c r="G73" t="s">
         <v>282</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -28733,7 +29383,7 @@
       <c r="G74" t="s">
         <v>564</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -28741,7 +29391,7 @@
       <c r="G75" t="s">
         <v>364</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -28749,7 +29399,7 @@
       <c r="G76" t="s">
         <v>300</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -28757,7 +29407,7 @@
       <c r="G77" t="s">
         <v>306</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>474</v>
       </c>
     </row>
@@ -28765,7 +29415,7 @@
       <c r="G78" t="s">
         <v>311</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>523</v>
       </c>
     </row>
@@ -28773,7 +29423,7 @@
       <c r="G79" t="s">
         <v>449</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -28781,7 +29431,7 @@
       <c r="G80" t="s">
         <v>352</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -28789,7 +29439,7 @@
       <c r="G81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -28797,7 +29447,7 @@
       <c r="G82" t="s">
         <v>301</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>551</v>
       </c>
     </row>
@@ -28805,7 +29455,7 @@
       <c r="G83" t="s">
         <v>307</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -28813,7 +29463,7 @@
       <c r="G84" t="s">
         <v>296</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -28821,7 +29471,7 @@
       <c r="G85" t="s">
         <v>585</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -28829,7 +29479,7 @@
       <c r="G86" t="s">
         <v>291</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>539</v>
       </c>
     </row>
@@ -28837,7 +29487,7 @@
       <c r="G87" t="s">
         <v>308</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -28845,7 +29495,7 @@
       <c r="G88" t="s">
         <v>292</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>473</v>
       </c>
     </row>
@@ -28853,7 +29503,7 @@
       <c r="G89" t="s">
         <v>293</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -28861,7 +29511,7 @@
       <c r="G90" t="s">
         <v>326</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -28869,7 +29519,7 @@
       <c r="G91" t="s">
         <v>332</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -28877,7 +29527,7 @@
       <c r="G92" t="s">
         <v>315</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -28885,7 +29535,7 @@
       <c r="G93" t="s">
         <v>360</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -28893,7 +29543,7 @@
       <c r="G94" t="s">
         <v>297</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>456</v>
       </c>
     </row>
@@ -28901,177 +29551,177 @@
       <c r="G95" t="s">
         <v>298</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22096" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23202" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1865,6 +1865,12 @@
   </si>
   <si>
     <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1878,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="697" x14ac:knownFonts="1">
+  <fonts count="729" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6276,8 +6282,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1192">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13028,8 +13236,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1215">
+  <borders count="1279">
     <border>
       <left/>
       <right/>
@@ -24451,6 +24965,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -25289,7 +26455,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="723">
+  <cellXfs count="755">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27432,52 +28598,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="1167" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1167" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1170" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1170" fontId="683" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1173" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1173" fontId="684" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1176" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1176" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="687" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1182" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="1173" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="692" fillId="1185" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="694" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="695" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="696" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1182" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1173" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1185" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1185" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1188" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1194" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1197" fontId="699" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1200" fontId="700" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1203" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="702" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="703" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1209" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1200" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1212" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1212" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1221" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1224" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1227" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1230" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1236" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1227" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29125,7 +30387,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>309</v>
+        <v>598</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -29133,7 +30395,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -29141,7 +30403,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -29149,7 +30411,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -29157,7 +30419,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -29165,7 +30427,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="Z47" t="s">
         <v>462</v>
@@ -29173,7 +30435,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -29181,7 +30443,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -29189,7 +30451,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="Z50" t="s">
         <v>588</v>
@@ -29197,7 +30459,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -29205,7 +30467,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -29213,7 +30475,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -29221,7 +30483,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="Z54" t="s">
         <v>538</v>
@@ -29229,7 +30491,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Z55" t="s">
         <v>519</v>
@@ -29237,7 +30499,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -29245,7 +30507,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z57" t="s">
         <v>366</v>
@@ -29253,7 +30515,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>324</v>
+        <v>599</v>
       </c>
       <c r="Z58" t="s">
         <v>512</v>
@@ -29261,7 +30523,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -29269,7 +30531,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -29277,7 +30539,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -29285,7 +30547,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -29293,7 +30555,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -29301,7 +30563,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -29309,7 +30571,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -29317,7 +30579,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="Z66" t="s">
         <v>458</v>
@@ -29325,7 +30587,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="Z67" t="s">
         <v>529</v>
@@ -29333,7 +30595,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>584</v>
+        <v>334</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -29341,7 +30603,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="Z69" t="s">
         <v>409</v>
@@ -29349,7 +30611,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>430</v>
+        <v>584</v>
       </c>
       <c r="Z70" t="s">
         <v>463</v>
@@ -29357,7 +30619,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -29365,7 +30627,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -29373,7 +30635,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -29381,7 +30643,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>564</v>
+        <v>431</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -29389,7 +30651,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -29397,7 +30659,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -29405,7 +30667,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="Z77" t="s">
         <v>474</v>
@@ -29413,7 +30675,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z78" t="s">
         <v>523</v>
@@ -29421,7 +30683,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -29429,7 +30691,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -29437,7 +30699,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -29445,7 +30707,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="Z82" t="s">
         <v>551</v>
@@ -29453,7 +30715,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -29461,7 +30723,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -29469,7 +30731,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>585</v>
+        <v>307</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -29477,7 +30739,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Z86" t="s">
         <v>539</v>
@@ -29485,7 +30747,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>308</v>
+        <v>585</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -29493,7 +30755,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z88" t="s">
         <v>473</v>
@@ -29501,7 +30763,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -29509,7 +30771,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -29517,7 +30779,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -29525,7 +30787,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -29533,7 +30795,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -29541,7 +30803,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="Z94" t="s">
         <v>456</v>
@@ -29549,18 +30811,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>297</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>298</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -41,13 +41,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23202" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23753" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1871,6 +1871,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1881,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="729" x14ac:knownFonts="1">
+  <fonts count="745" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6484,8 +6487,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13542,8 +13646,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1279">
+  <borders count="1311">
     <border>
       <left/>
       <right/>
@@ -24965,6 +25222,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26455,7 +27038,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="755">
+  <cellXfs count="771">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28694,52 +29277,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="1221" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1221" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="1224" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1224" fontId="715" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="1227" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1227" fontId="716" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1230" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1230" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="718" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="719" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="721" fillId="1236" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="722" fillId="1227" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="723" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="724" fillId="1239" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="725" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="726" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1236" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1227" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1239" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1239" fontId="724" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1248" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1254" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1263" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1254" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1266" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1266" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29065,7 +29696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29150,24 +29781,21 @@
         <v>416</v>
       </c>
       <c r="Y1" t="s">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>443</v>
       </c>
       <c r="AD1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -29245,24 +29873,21 @@
         <v>417</v>
       </c>
       <c r="Y2" t="s">
-        <v>597</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>453</v>
       </c>
       <c r="AD2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -29333,22 +29958,22 @@
       <c r="X3" t="s">
         <v>418</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="AC3" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -29416,22 +30041,22 @@
       <c r="X4" t="s">
         <v>419</v>
       </c>
+      <c r="Y4" t="s">
+        <v>374</v>
+      </c>
       <c r="Z4" t="s">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>444</v>
       </c>
       <c r="AD4" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -29490,22 +30115,22 @@
       <c r="W5" t="s">
         <v>379</v>
       </c>
+      <c r="Y5" t="s">
+        <v>375</v>
+      </c>
       <c r="Z5" t="s">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>445</v>
       </c>
       <c r="AD5" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -29558,22 +30183,22 @@
       <c r="W6" t="s">
         <v>381</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="AA6" t="s">
-        <v>465</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>446</v>
       </c>
       <c r="AD6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -29620,22 +30245,22 @@
       <c r="W7" t="s">
         <v>380</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="AA7" t="s">
-        <v>466</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>447</v>
       </c>
       <c r="AD7" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE7" t="s">
         <v>589</v>
       </c>
     </row>
@@ -29676,22 +30301,22 @@
       <c r="W8" t="s">
         <v>382</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>448</v>
       </c>
       <c r="AD8" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE8" t="s">
         <v>590</v>
       </c>
     </row>
@@ -29732,13 +30357,13 @@
       <c r="W9" t="s">
         <v>383</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>591</v>
       </c>
     </row>
@@ -29773,13 +30398,13 @@
       <c r="T10" t="s">
         <v>429</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>277</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -29811,13 +30436,13 @@
       <c r="R11" t="s">
         <v>268</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>278</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>279</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -29849,13 +30474,13 @@
       <c r="R12" t="s">
         <v>269</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -29884,13 +30509,13 @@
       <c r="R13" t="s">
         <v>274</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>346</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>530</v>
       </c>
     </row>
@@ -29919,13 +30544,13 @@
       <c r="R14" t="s">
         <v>270</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>547</v>
       </c>
     </row>
@@ -29951,13 +30576,13 @@
       <c r="R15" t="s">
         <v>271</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>548</v>
       </c>
     </row>
@@ -29975,7 +30600,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="Q16" t="s">
         <v>556</v>
@@ -29983,13 +30608,13 @@
       <c r="R16" t="s">
         <v>272</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>552</v>
       </c>
     </row>
@@ -30007,15 +30632,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>557</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>514</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>553</v>
       </c>
     </row>
@@ -30032,10 +30657,13 @@
       <c r="K18" t="s">
         <v>509</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>531</v>
       </c>
     </row>
@@ -30052,10 +30680,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>549</v>
       </c>
     </row>
@@ -30072,10 +30700,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>550</v>
       </c>
     </row>
@@ -30092,10 +30720,10 @@
       <c r="K21" t="s">
         <v>400</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>554</v>
       </c>
     </row>
@@ -30112,10 +30740,10 @@
       <c r="K22" t="s">
         <v>526</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>540</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -30132,10 +30760,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>592</v>
       </c>
     </row>
@@ -30152,16 +30780,16 @@
       <c r="K24" t="s">
         <v>412</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -30172,16 +30800,16 @@
       <c r="K25" t="s">
         <v>579</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>468</v>
@@ -30192,16 +30820,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -30212,16 +30840,16 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -30232,13 +30860,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>443</v>
       </c>
       <c r="E29" t="s">
         <v>524</v>
@@ -30249,13 +30877,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>525</v>
@@ -30263,21 +30891,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>439</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -30288,7 +30913,7 @@
       <c r="G32" t="s">
         <v>305</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -30299,7 +30924,7 @@
       <c r="G33" t="s">
         <v>563</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -30310,7 +30935,7 @@
       <c r="G34" t="s">
         <v>280</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -30321,7 +30946,7 @@
       <c r="G35" t="s">
         <v>350</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -30332,7 +30957,7 @@
       <c r="G36" t="s">
         <v>328</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -30343,7 +30968,7 @@
       <c r="G37" t="s">
         <v>281</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>358</v>
       </c>
     </row>
@@ -30354,7 +30979,7 @@
       <c r="G38" t="s">
         <v>329</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>455</v>
       </c>
     </row>
@@ -30365,7 +30990,7 @@
       <c r="G39" t="s">
         <v>287</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>583</v>
       </c>
     </row>
@@ -30373,7 +30998,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>413</v>
       </c>
     </row>
@@ -30381,7 +31006,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -30389,7 +31014,7 @@
       <c r="G42" t="s">
         <v>598</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -30397,7 +31022,7 @@
       <c r="G43" t="s">
         <v>309</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -30405,7 +31030,7 @@
       <c r="G44" t="s">
         <v>320</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30413,7 +31038,7 @@
       <c r="G45" t="s">
         <v>321</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30421,7 +31046,7 @@
       <c r="G46" t="s">
         <v>363</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -30429,7 +31054,7 @@
       <c r="G47" t="s">
         <v>362</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -30437,7 +31062,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -30445,7 +31070,7 @@
       <c r="G49" t="s">
         <v>322</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -30453,7 +31078,7 @@
       <c r="G50" t="s">
         <v>359</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>588</v>
       </c>
     </row>
@@ -30461,7 +31086,7 @@
       <c r="G51" t="s">
         <v>388</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -30469,7 +31094,7 @@
       <c r="G52" t="s">
         <v>323</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -30477,7 +31102,7 @@
       <c r="G53" t="s">
         <v>376</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -30485,7 +31110,7 @@
       <c r="G54" t="s">
         <v>351</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>538</v>
       </c>
     </row>
@@ -30493,7 +31118,7 @@
       <c r="G55" t="s">
         <v>288</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>519</v>
       </c>
     </row>
@@ -30501,7 +31126,7 @@
       <c r="G56" t="s">
         <v>312</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -30509,7 +31134,7 @@
       <c r="G57" t="s">
         <v>313</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>366</v>
       </c>
     </row>
@@ -30517,7 +31142,7 @@
       <c r="G58" t="s">
         <v>599</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>512</v>
       </c>
     </row>
@@ -30525,7 +31150,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -30533,7 +31158,7 @@
       <c r="G60" t="s">
         <v>324</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -30541,7 +31166,7 @@
       <c r="G61" t="s">
         <v>333</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -30549,7 +31174,7 @@
       <c r="G62" t="s">
         <v>357</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -30557,7 +31182,7 @@
       <c r="G63" t="s">
         <v>330</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -30565,7 +31190,7 @@
       <c r="G64" t="s">
         <v>331</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -30573,7 +31198,7 @@
       <c r="G65" t="s">
         <v>389</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -30581,7 +31206,7 @@
       <c r="G66" t="s">
         <v>390</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -30589,7 +31214,7 @@
       <c r="G67" t="s">
         <v>365</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>529</v>
       </c>
     </row>
@@ -30597,7 +31222,7 @@
       <c r="G68" t="s">
         <v>334</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -30605,7 +31230,7 @@
       <c r="G69" t="s">
         <v>289</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>409</v>
       </c>
     </row>
@@ -30613,7 +31238,7 @@
       <c r="G70" t="s">
         <v>584</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -30621,7 +31246,7 @@
       <c r="G71" t="s">
         <v>335</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -30629,7 +31254,7 @@
       <c r="G72" t="s">
         <v>430</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -30637,7 +31262,7 @@
       <c r="G73" t="s">
         <v>325</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -30645,7 +31270,7 @@
       <c r="G74" t="s">
         <v>431</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -30653,7 +31278,7 @@
       <c r="G75" t="s">
         <v>282</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -30661,7 +31286,7 @@
       <c r="G76" t="s">
         <v>564</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -30669,7 +31294,7 @@
       <c r="G77" t="s">
         <v>364</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>474</v>
       </c>
     </row>
@@ -30677,7 +31302,7 @@
       <c r="G78" t="s">
         <v>300</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>523</v>
       </c>
     </row>
@@ -30685,7 +31310,7 @@
       <c r="G79" t="s">
         <v>306</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -30693,7 +31318,7 @@
       <c r="G80" t="s">
         <v>311</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -30701,7 +31326,7 @@
       <c r="G81" t="s">
         <v>449</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -30709,7 +31334,7 @@
       <c r="G82" t="s">
         <v>352</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>551</v>
       </c>
     </row>
@@ -30717,7 +31342,7 @@
       <c r="G83" t="s">
         <v>290</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30725,7 +31350,7 @@
       <c r="G84" t="s">
         <v>301</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -30733,7 +31358,7 @@
       <c r="G85" t="s">
         <v>307</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -30741,7 +31366,7 @@
       <c r="G86" t="s">
         <v>296</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>539</v>
       </c>
     </row>
@@ -30749,7 +31374,7 @@
       <c r="G87" t="s">
         <v>585</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -30757,7 +31382,7 @@
       <c r="G88" t="s">
         <v>291</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>473</v>
       </c>
     </row>
@@ -30765,7 +31390,7 @@
       <c r="G89" t="s">
         <v>308</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -30773,7 +31398,7 @@
       <c r="G90" t="s">
         <v>292</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -30781,7 +31406,7 @@
       <c r="G91" t="s">
         <v>293</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -30789,7 +31414,7 @@
       <c r="G92" t="s">
         <v>326</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -30797,7 +31422,7 @@
       <c r="G93" t="s">
         <v>332</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -30805,7 +31430,7 @@
       <c r="G94" t="s">
         <v>315</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>456</v>
       </c>
     </row>
@@ -30813,7 +31438,7 @@
       <c r="G95" t="s">
         <v>360</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
       </c>
     </row>
@@ -30821,7 +31446,7 @@
       <c r="G96" t="s">
         <v>297</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -30829,167 +31454,167 @@
       <c r="G97" t="s">
         <v>298</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23753" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25416" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1874,6 +1874,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1893,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="745" x14ac:knownFonts="1">
+  <fonts count="793" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6588,8 +6600,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13799,8 +14114,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1311">
+  <borders count="1407">
     <border>
       <left/>
       <right/>
@@ -25222,6 +25996,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -27038,7 +28790,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="771">
+  <cellXfs count="819">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29325,52 +31077,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="1248" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1248" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="730" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1251" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1251" fontId="731" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1254" borderId="1294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1254" fontId="732" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1257" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="734" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="735" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="737" fillId="1263" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="738" fillId="1254" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="739" fillId="1266" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="740" fillId="1266" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="741" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="742" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="743" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="744" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="736" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1263" fontId="737" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1254" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1266" fontId="739" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1266" fontId="740" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="741" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1275" fontId="745" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="746" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1322" fillId="1278" fontId="747" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1281" fontId="748" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1284" fontId="749" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="750" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="751" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1290" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1281" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1293" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1293" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="759" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="760" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1350" fillId="1302" fontId="761" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="762" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1305" fontId="763" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1308" fontId="764" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1311" fontId="765" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="766" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="767" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="768" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1317" fontId="769" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1308" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1320" fontId="771" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1320" fontId="772" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="773" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1323" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="775" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="776" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1329" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1332" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1335" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1338" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1344" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1335" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1347" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1347" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29696,7 +31592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30781,7 +32677,7 @@
         <v>412</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>601</v>
       </c>
       <c r="AD24" t="s">
         <v>593</v>
@@ -30801,7 +32697,7 @@
         <v>579</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>594</v>
@@ -30821,7 +32717,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -30841,7 +32737,7 @@
         <v>460</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -30861,7 +32757,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -30878,7 +32774,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30">
@@ -30892,7 +32788,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -30903,7 +32799,7 @@
         <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -30914,7 +32810,7 @@
         <v>305</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -30925,7 +32821,7 @@
         <v>563</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -30936,7 +32832,7 @@
         <v>280</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35">
@@ -30947,7 +32843,7 @@
         <v>350</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -30958,7 +32854,7 @@
         <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -30969,7 +32865,7 @@
         <v>281</v>
       </c>
       <c r="Y37" t="s">
-        <v>358</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -30980,7 +32876,7 @@
         <v>329</v>
       </c>
       <c r="Y38" t="s">
-        <v>455</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -30991,7 +32887,7 @@
         <v>287</v>
       </c>
       <c r="Y39" t="s">
-        <v>583</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
@@ -30999,7 +32895,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41">
@@ -31007,7 +32903,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42">
@@ -31015,7 +32911,7 @@
         <v>598</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
@@ -31023,7 +32919,7 @@
         <v>309</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -31031,7 +32927,7 @@
         <v>320</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -31039,7 +32935,7 @@
         <v>321</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -31047,7 +32943,7 @@
         <v>363</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -31055,7 +32951,7 @@
         <v>362</v>
       </c>
       <c r="Y47" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -31063,7 +32959,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -31071,7 +32967,7 @@
         <v>322</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
@@ -31079,7 +32975,7 @@
         <v>359</v>
       </c>
       <c r="Y50" t="s">
-        <v>588</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -31087,7 +32983,7 @@
         <v>388</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -31095,7 +32991,7 @@
         <v>323</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53">
@@ -31103,7 +32999,7 @@
         <v>376</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -31111,7 +33007,7 @@
         <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>538</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -31119,7 +33015,7 @@
         <v>288</v>
       </c>
       <c r="Y55" t="s">
-        <v>519</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -31127,7 +33023,7 @@
         <v>312</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57">
@@ -31135,7 +33031,7 @@
         <v>313</v>
       </c>
       <c r="Y57" t="s">
-        <v>366</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58">
@@ -31143,7 +33039,7 @@
         <v>599</v>
       </c>
       <c r="Y58" t="s">
-        <v>512</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -31151,7 +33047,7 @@
         <v>314</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60">
@@ -31159,7 +33055,7 @@
         <v>324</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61">
@@ -31167,7 +33063,7 @@
         <v>333</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -31175,7 +33071,7 @@
         <v>357</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -31183,7 +33079,7 @@
         <v>330</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -31191,7 +33087,7 @@
         <v>331</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -31199,7 +33095,7 @@
         <v>389</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -31207,7 +33103,7 @@
         <v>390</v>
       </c>
       <c r="Y66" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -31215,7 +33111,7 @@
         <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>529</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -31223,7 +33119,7 @@
         <v>334</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69">
@@ -31231,7 +33127,7 @@
         <v>289</v>
       </c>
       <c r="Y69" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70">
@@ -31239,7 +33135,7 @@
         <v>584</v>
       </c>
       <c r="Y70" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -31247,7 +33143,7 @@
         <v>335</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72">
@@ -31255,7 +33151,7 @@
         <v>430</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
@@ -31263,7 +33159,7 @@
         <v>325</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -31271,7 +33167,7 @@
         <v>431</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -31279,7 +33175,7 @@
         <v>282</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -31287,7 +33183,7 @@
         <v>564</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -31295,7 +33191,7 @@
         <v>364</v>
       </c>
       <c r="Y77" t="s">
-        <v>474</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -31303,7 +33199,7 @@
         <v>300</v>
       </c>
       <c r="Y78" t="s">
-        <v>523</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -31311,7 +33207,7 @@
         <v>306</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80">
@@ -31319,7 +33215,7 @@
         <v>311</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81">
@@ -31327,7 +33223,7 @@
         <v>449</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -31335,7 +33231,7 @@
         <v>352</v>
       </c>
       <c r="Y82" t="s">
-        <v>551</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -31343,7 +33239,7 @@
         <v>290</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -31351,7 +33247,7 @@
         <v>301</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85">
@@ -31359,7 +33255,7 @@
         <v>307</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -31367,7 +33263,7 @@
         <v>296</v>
       </c>
       <c r="Y86" t="s">
-        <v>539</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -31375,7 +33271,7 @@
         <v>585</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -31383,7 +33279,7 @@
         <v>291</v>
       </c>
       <c r="Y88" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89">
@@ -31391,7 +33287,7 @@
         <v>308</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -31399,7 +33295,7 @@
         <v>292</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91">
@@ -31407,7 +33303,7 @@
         <v>293</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -31415,7 +33311,7 @@
         <v>326</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -31423,7 +33319,7 @@
         <v>332</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94">
@@ -31431,7 +33327,7 @@
         <v>315</v>
       </c>
       <c r="Y94" t="s">
-        <v>456</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -31439,7 +33335,7 @@
         <v>360</v>
       </c>
       <c r="Y95" t="s">
-        <v>457</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -31447,7 +33343,7 @@
         <v>297</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -31455,166 +33351,186 @@
         <v>298</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>558</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>565</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>403</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>464</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>603</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25416" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25972" uniqueCount="607">
   <si>
     <t>description</t>
   </si>
@@ -1886,6 +1886,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1899,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="793" x14ac:knownFonts="1">
+  <fonts count="809" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6903,8 +6909,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1354">
+  <fills count="1381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14573,8 +14680,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1407">
+  <borders count="1439">
     <border>
       <left/>
       <right/>
@@ -25996,6 +26256,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28790,7 +29376,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="819">
+  <cellXfs count="835">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31221,52 +31807,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="776" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="1329" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1329" fontId="777" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="778" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="779" fillId="1332" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1332" fontId="779" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="1335" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1335" fontId="780" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="781" fillId="1338" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1338" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="782" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="783" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="785" fillId="1344" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="786" fillId="1335" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="787" fillId="1347" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="788" fillId="1347" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="789" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="790" fillId="1350" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="791" fillId="1338" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="792" fillId="1353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="784" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1344" fontId="785" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1335" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1347" fontId="787" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1347" fontId="788" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="789" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1350" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1338" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1356" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1359" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1362" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1365" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1371" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1362" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1374" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="1374" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31973,7 +32607,7 @@
         <v>459</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>605</v>
       </c>
       <c r="H5" t="s">
         <v>508</v>
@@ -32047,7 +32681,7 @@
         <v>559</v>
       </c>
       <c r="G6" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="H6" t="s">
         <v>471</v>
@@ -32109,7 +32743,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="H7" t="s">
         <v>467</v>
@@ -32171,7 +32805,7 @@
         <v>339</v>
       </c>
       <c r="G8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H8" t="s">
         <v>348</v>
@@ -32227,7 +32861,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="H9" t="s">
         <v>349</v>
@@ -32271,7 +32905,7 @@
         <v>336</v>
       </c>
       <c r="G10" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="H10" t="s">
         <v>472</v>
@@ -32312,7 +32946,7 @@
         <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="H11" t="s">
         <v>342</v>
@@ -32350,7 +32984,7 @@
         <v>340</v>
       </c>
       <c r="G12" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
         <v>343</v>
@@ -32388,7 +33022,7 @@
         <v>361</v>
       </c>
       <c r="G13" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="H13" t="s">
         <v>344</v>
@@ -32423,7 +33057,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="H14" t="s">
         <v>345</v>
@@ -32458,7 +33092,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K15" t="s">
         <v>562</v>
@@ -32490,7 +33124,7 @@
         <v>405</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -32522,7 +33156,7 @@
         <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>338</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -32548,7 +33182,7 @@
         <v>432</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>509</v>
@@ -32571,7 +33205,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -32591,7 +33225,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -32611,7 +33245,7 @@
         <v>276</v>
       </c>
       <c r="G21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K21" t="s">
         <v>400</v>
@@ -32631,7 +33265,7 @@
         <v>596</v>
       </c>
       <c r="G22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K22" t="s">
         <v>526</v>
@@ -32651,7 +33285,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -32671,7 +33305,7 @@
         <v>341</v>
       </c>
       <c r="G24" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K24" t="s">
         <v>412</v>
@@ -32691,7 +33325,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="K25" t="s">
         <v>579</v>
@@ -32711,7 +33345,7 @@
         <v>468</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -32731,7 +33365,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K27" t="s">
         <v>460</v>
@@ -32751,7 +33385,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -32768,7 +33402,7 @@
         <v>524</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -32785,7 +33419,7 @@
         <v>525</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -32796,7 +33430,7 @@
         <v>439</v>
       </c>
       <c r="G31" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -32807,7 +33441,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -32818,7 +33452,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>563</v>
+        <v>305</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -32829,7 +33463,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>280</v>
+        <v>563</v>
       </c>
       <c r="Y34" t="s">
         <v>602</v>
@@ -32840,7 +33474,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -32851,7 +33485,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -32862,7 +33496,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -32873,7 +33507,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -32884,7 +33518,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="Y39" t="s">
         <v>358</v>
@@ -32892,7 +33526,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="Y40" t="s">
         <v>455</v>
@@ -32900,7 +33534,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>583</v>
@@ -32908,7 +33542,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>598</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>413</v>
@@ -32916,7 +33550,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>309</v>
+        <v>598</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -32924,7 +33558,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -32932,7 +33566,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -32940,7 +33574,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -32948,7 +33582,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -32956,7 +33590,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -32964,7 +33598,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>462</v>
@@ -32972,7 +33606,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -32980,7 +33614,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -32988,7 +33622,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="Y52" t="s">
         <v>588</v>
@@ -32996,7 +33630,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -33004,7 +33638,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -33012,7 +33646,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
+        <v>351</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -33020,7 +33654,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="Y56" t="s">
         <v>538</v>
@@ -33028,7 +33662,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y57" t="s">
         <v>519</v>
@@ -33036,7 +33670,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>599</v>
+        <v>313</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -33044,7 +33678,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>314</v>
+        <v>599</v>
       </c>
       <c r="Y59" t="s">
         <v>366</v>
@@ -33052,7 +33686,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="Y60" t="s">
         <v>512</v>
@@ -33060,7 +33694,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -33068,7 +33702,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -33076,7 +33710,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -33084,7 +33718,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -33092,7 +33726,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -33100,7 +33734,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -33108,7 +33742,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -33116,7 +33750,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="Y68" t="s">
         <v>458</v>
@@ -33124,7 +33758,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="Y69" t="s">
         <v>529</v>
@@ -33132,7 +33766,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -33140,7 +33774,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>335</v>
+        <v>584</v>
       </c>
       <c r="Y71" t="s">
         <v>409</v>
@@ -33148,7 +33782,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="Y72" t="s">
         <v>463</v>
@@ -33156,7 +33790,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -33164,7 +33798,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -33172,7 +33806,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -33180,7 +33814,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>564</v>
+        <v>282</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -33188,7 +33822,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -33196,7 +33830,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -33204,7 +33838,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Y79" t="s">
         <v>474</v>
@@ -33212,7 +33846,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Y80" t="s">
         <v>523</v>
@@ -33220,7 +33854,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>449</v>
+        <v>311</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -33228,7 +33862,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -33236,7 +33870,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -33244,7 +33878,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y84" t="s">
         <v>551</v>
@@ -33252,7 +33886,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -33260,7 +33894,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -33268,7 +33902,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>585</v>
+        <v>296</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -33276,7 +33910,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="Y88" t="s">
         <v>539</v>
@@ -33284,7 +33918,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -33292,7 +33926,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="Y90" t="s">
         <v>473</v>
@@ -33300,7 +33934,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -33308,7 +33942,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -33316,15 +33950,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Y93" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -33332,7 +33966,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -33340,7 +33974,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -33348,13 +33982,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y97" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>298</v>
+      </c>
       <c r="Y98" t="s">
         <v>457</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25972" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26529" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1892,6 +1892,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1902,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="809" x14ac:knownFonts="1">
+  <fonts count="825" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7010,8 +7013,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1381">
+  <fills count="1408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14833,8 +14937,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1439">
+  <borders count="1471">
     <border>
       <left/>
       <right/>
@@ -26256,6 +26513,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29376,7 +29959,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="835">
+  <cellXfs count="851">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31855,52 +32438,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1353" fontId="792" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="1356" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1356" fontId="793" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="794" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="795" fillId="1359" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1359" fontId="795" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="796" fillId="1362" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1362" fontId="796" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="797" fillId="1365" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1365" fontId="797" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="798" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="799" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="801" fillId="1371" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="802" fillId="1362" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="803" fillId="1374" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="804" fillId="1374" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="805" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="806" fillId="1377" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="807" fillId="1365" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="808" fillId="1380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1371" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1362" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1374" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1374" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1365" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1383" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1386" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1389" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1392" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1398" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1389" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1401" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="1401" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32226,7 +32857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -33961,7 +34592,7 @@
         <v>332</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95">
@@ -33969,7 +34600,7 @@
         <v>315</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -33977,7 +34608,7 @@
         <v>360</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -33985,7 +34616,7 @@
         <v>297</v>
       </c>
       <c r="Y97" t="s">
-        <v>456</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -33993,181 +34624,186 @@
         <v>298</v>
       </c>
       <c r="Y98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>566</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>403</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>603</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,41 +18,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26529" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27090" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1895,6 +1896,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1921,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="825" x14ac:knownFonts="1">
+  <fonts count="841" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7114,8 +7133,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1408">
+  <fills count="1435">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15090,8 +15210,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1471">
+  <borders count="1503">
     <border>
       <left/>
       <right/>
@@ -26513,6 +26786,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29959,7 +30558,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="851">
+  <cellXfs count="867">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32486,52 +33085,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1380" fontId="808" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="809" fillId="1383" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1383" fontId="809" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="810" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="811" fillId="1386" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1386" fontId="811" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="812" fillId="1389" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1389" fontId="812" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="813" fillId="1392" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1392" fontId="813" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="814" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="815" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="817" fillId="1398" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="818" fillId="1389" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="819" fillId="1401" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="820" fillId="1401" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="821" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="822" fillId="1404" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="823" fillId="1392" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="824" fillId="1407" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1398" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1389" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1401" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1401" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1410" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1413" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1416" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1419" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1425" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1416" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="835" fillId="1428" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="1428" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32857,7 +33504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32882,81 +33529,84 @@
         <v>541</v>
       </c>
       <c r="E1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>367</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>353</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>567</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>532</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>259</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>420</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>441</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>434</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>377</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>416</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>443</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32974,81 +33624,84 @@
         <v>542</v>
       </c>
       <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>469</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>522</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>336</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>404</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>450</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>568</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>535</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>433</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>451</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>273</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>421</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>442</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>440</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>401</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>417</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>453</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>546</v>
       </c>
     </row>
@@ -33065,76 +33718,76 @@
       <c r="D3" t="s">
         <v>578</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>510</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>385</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>533</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>369</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>361</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>354</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>569</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>536</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>452</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>260</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>422</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>436</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>402</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>418</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>384</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -33148,82 +33801,82 @@
       <c r="D4" t="s">
         <v>543</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>407</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>470</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>534</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>370</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>258</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>355</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>570</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>537</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>261</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>423</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>437</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>378</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>419</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>374</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>444</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
         <v>395</v>
@@ -33231,73 +33884,73 @@
       <c r="D5" t="s">
         <v>544</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>511</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>459</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>605</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>508</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>582</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>371</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>513</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>580</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>262</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>424</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>438</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>379</v>
       </c>
-      <c r="Y5" t="s">
-        <v>375</v>
-      </c>
       <c r="Z5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>445</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>396</v>
@@ -33305,1505 +33958,1513 @@
       <c r="D6" t="s">
         <v>545</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>559</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>356</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>471</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>368</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>574</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>263</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>411</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>425</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>381</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>446</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>397</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>408</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>467</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>586</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>336</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>575</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>264</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>435</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>426</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>380</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>447</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>398</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>339</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>386</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>348</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>560</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>576</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>265</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>427</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>382</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>448</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>399</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>387</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>349</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>581</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>266</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>428</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>383</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>336</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>327</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>472</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>571</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>454</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>267</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>429</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>277</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" t="s">
+        <v>610</v>
+      </c>
+      <c r="H11" t="s">
         <v>372</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>342</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>561</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>528</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>572</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>268</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>278</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>279</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>340</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>294</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>343</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>410</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>587</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>573</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>269</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" t="s">
         <v>361</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>283</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>344</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>461</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>274</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>346</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>567</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>337</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>345</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>527</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>270</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>532</v>
-      </c>
-      <c r="E15" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>284</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>562</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>555</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>271</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" t="s">
         <v>405</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>285</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>600</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>556</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>272</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>406</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>338</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>557</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>514</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>432</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>509</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>316</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>441</v>
-      </c>
-      <c r="E21" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" t="s">
         <v>276</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>317</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>400</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>434</v>
-      </c>
-      <c r="E22" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" t="s">
         <v>596</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>318</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>526</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>540</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>377</v>
-      </c>
-      <c r="E23" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>319</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>416</v>
-      </c>
-      <c r="E24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" t="s">
         <v>341</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>310</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>412</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>601</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>299</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>579</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>468</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>302</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>286</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>443</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>524</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>303</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" t="s">
+        <v>525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>525</v>
-      </c>
-      <c r="G30" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>439</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>295</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>305</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>563</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>280</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>350</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>328</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>281</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>329</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>287</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>583</v>
+      <c r="Z41" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>598</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>309</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>320</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>321</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>363</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>362</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>322</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>359</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>388</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>323</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>376</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>351</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>288</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>312</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>313</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>599</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>314</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>324</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>333</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>357</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>330</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>331</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>389</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>390</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>365</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>334</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>289</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>584</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>335</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>430</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>325</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>431</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>282</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>564</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>364</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>300</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>306</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>311</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>449</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>352</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>290</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>301</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>307</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>296</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>585</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>291</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>308</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>292</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>293</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>326</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>332</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>315</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>360</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>297</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>298</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27090" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27652" uniqueCount="616">
   <si>
     <t>description</t>
   </si>
@@ -1914,6 +1914,12 @@
   </si>
   <si>
     <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1927,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="841" x14ac:knownFonts="1">
+  <fonts count="857" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7234,8 +7240,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1435">
+  <fills count="1462">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15363,8 +15470,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1503">
+  <borders count="1535">
     <border>
       <left/>
       <right/>
@@ -26786,6 +27046,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30558,7 +31144,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="867">
+  <cellXfs count="883">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33133,52 +33719,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="824" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="825" fillId="1410" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1410" fontId="825" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="826" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="827" fillId="1413" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1413" fontId="827" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="828" fillId="1416" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1416" fontId="828" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="829" fillId="1419" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1419" fontId="829" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="830" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="831" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="833" fillId="1425" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="834" fillId="1416" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="1428" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="836" fillId="1428" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="837" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="838" fillId="1431" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="839" fillId="1419" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="840" fillId="1434" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1425" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1416" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1428" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1428" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1431" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="840" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1437" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1440" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="1443" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1446" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1452" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1443" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="1455" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1455" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34463,7 +35097,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -34486,7 +35120,7 @@
         <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>432</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -34506,7 +35140,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>316</v>
@@ -34526,13 +35160,13 @@
         <v>420</v>
       </c>
       <c r="F21" t="s">
-        <v>276</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>317</v>
       </c>
       <c r="L21" t="s">
-        <v>400</v>
+        <v>615</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -34546,7 +35180,7 @@
         <v>441</v>
       </c>
       <c r="F22" t="s">
-        <v>596</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
         <v>318</v>
@@ -34566,7 +35200,7 @@
         <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>596</v>
       </c>
       <c r="H23" t="s">
         <v>319</v>
@@ -34586,7 +35220,7 @@
         <v>377</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>310</v>
@@ -34606,7 +35240,7 @@
         <v>416</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="H25" t="s">
         <v>299</v>
@@ -34626,7 +35260,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>468</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -34646,7 +35280,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="H27" t="s">
         <v>302</v>
@@ -34666,7 +35300,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>286</v>
@@ -34683,7 +35317,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>303</v>
@@ -34700,7 +35334,7 @@
         <v>443</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H30" t="s">
         <v>304</v>
@@ -34714,7 +35348,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -34725,7 +35359,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>439</v>
       </c>
       <c r="H32" t="s">
         <v>295</v>
@@ -34736,7 +35370,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>305</v>
@@ -34747,7 +35381,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>563</v>
@@ -34758,7 +35392,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>280</v>
@@ -34769,7 +35403,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>350</v>
@@ -34780,7 +35414,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>328</v>
@@ -34791,7 +35425,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>281</v>
@@ -34802,7 +35436,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>329</v>
@@ -34812,6 +35446,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>287</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -18,15 +18,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27652" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28217" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1920,6 +1920,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1942,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="857" x14ac:knownFonts="1">
+  <fonts count="873" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7341,8 +7356,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1462">
+  <fills count="1489">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15623,8 +15739,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1535">
+  <borders count="1567">
     <border>
       <left/>
       <right/>
@@ -27046,6 +27315,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -31144,7 +31739,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="883">
+  <cellXfs count="899">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33767,52 +34362,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="840" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="1437" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1437" fontId="841" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="842" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="1440" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1440" fontId="843" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="844" fillId="1443" borderId="1518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1443" fontId="844" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="845" fillId="1446" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1446" fontId="845" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="846" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="847" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="847" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="849" fillId="1452" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="850" fillId="1443" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="851" fillId="1455" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="1455" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="854" fillId="1458" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="855" fillId="1446" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="856" fillId="1461" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1452" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1443" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1455" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1455" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="853" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1458" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1446" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="856" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="1464" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1467" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="1470" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1473" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1479" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1470" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="1482" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1482" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34138,7 +34781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34454,7 +35097,7 @@
         <v>370</v>
       </c>
       <c r="L4" t="s">
-        <v>258</v>
+        <v>617</v>
       </c>
       <c r="M4" t="s">
         <v>355</v>
@@ -34490,7 +35133,7 @@
         <v>419</v>
       </c>
       <c r="Z4" t="s">
-        <v>374</v>
+        <v>618</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -34537,7 +35180,7 @@
         <v>371</v>
       </c>
       <c r="L5" t="s">
-        <v>513</v>
+        <v>258</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -34604,11 +35247,14 @@
       <c r="I6" t="s">
         <v>471</v>
       </c>
+      <c r="J6" t="s">
+        <v>616</v>
+      </c>
       <c r="K6" t="s">
         <v>368</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>513</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -34670,7 +35316,7 @@
         <v>586</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>336</v>
@@ -34729,7 +35375,7 @@
         <v>348</v>
       </c>
       <c r="L8" t="s">
-        <v>560</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -34785,7 +35431,7 @@
         <v>349</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -34829,7 +35475,7 @@
         <v>472</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -34870,7 +35516,7 @@
         <v>342</v>
       </c>
       <c r="L11" t="s">
-        <v>561</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>528</v>
@@ -34908,7 +35554,7 @@
         <v>343</v>
       </c>
       <c r="L12" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="N12" t="s">
         <v>587</v>
@@ -34946,7 +35592,7 @@
         <v>344</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="N13" t="s">
         <v>461</v>
@@ -34981,7 +35627,7 @@
         <v>345</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>527</v>
@@ -35013,7 +35659,7 @@
         <v>284</v>
       </c>
       <c r="L15" t="s">
-        <v>562</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -35045,7 +35691,7 @@
         <v>285</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>562</v>
       </c>
       <c r="N16" t="s">
         <v>600</v>
@@ -35077,7 +35723,7 @@
         <v>338</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -35097,13 +35743,13 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>614</v>
+        <v>432</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>509</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -35120,13 +35766,13 @@
         <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>509</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -35140,13 +35786,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>316</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -35160,13 +35806,13 @@
         <v>420</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
         <v>317</v>
       </c>
       <c r="L21" t="s">
-        <v>615</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -35180,13 +35826,13 @@
         <v>441</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>596</v>
       </c>
       <c r="H22" t="s">
         <v>318</v>
       </c>
       <c r="L22" t="s">
-        <v>526</v>
+        <v>615</v>
       </c>
       <c r="Z22" t="s">
         <v>540</v>
@@ -35200,13 +35846,13 @@
         <v>434</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>319</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -35220,13 +35866,13 @@
         <v>377</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="H24" t="s">
         <v>310</v>
       </c>
       <c r="L24" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>601</v>
@@ -35240,13 +35886,13 @@
         <v>416</v>
       </c>
       <c r="F25" t="s">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>299</v>
       </c>
       <c r="L25" t="s">
-        <v>579</v>
+        <v>412</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -35260,13 +35906,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>468</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>579</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -35280,13 +35926,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>302</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -35300,13 +35946,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -35317,13 +35963,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
         <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>347</v>
@@ -35334,10 +35980,13 @@
         <v>443</v>
       </c>
       <c r="F30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H30" t="s">
         <v>304</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -35348,7 +35997,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>525</v>
+        <v>439</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -35359,7 +36008,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>439</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>295</v>
@@ -35370,7 +36019,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>305</v>
@@ -35381,7 +36030,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>563</v>
@@ -35392,7 +36041,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>280</v>
@@ -35403,7 +36052,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>350</v>
@@ -35414,7 +36063,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>328</v>
@@ -35425,7 +36074,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>281</v>
@@ -35436,7 +36085,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>329</v>
@@ -35446,9 +36095,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>287</v>
       </c>
@@ -35922,186 +36568,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>457</v>
+        <v>619</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>205</v>
+        <v>620</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>206</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>558</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>613</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>150</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>403</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>151</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>152</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>603</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>166</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28217" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28782" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1942,7 +1942,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="873" x14ac:knownFonts="1">
+  <fonts count="889" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7457,8 +7457,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1489">
+  <fills count="1516">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15892,8 +15993,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1567">
+  <borders count="1599">
     <border>
       <left/>
       <right/>
@@ -27315,6 +27569,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -31739,7 +32319,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="899">
+  <cellXfs count="915">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34410,52 +34990,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1461" fontId="856" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="1464" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1464" fontId="857" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="858" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="859" fillId="1467" borderId="1546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1467" fontId="859" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="860" fillId="1470" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1470" fontId="860" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="861" fillId="1473" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1473" fontId="861" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="862" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="863" fillId="1476" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="863" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="865" fillId="1479" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="866" fillId="1470" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="867" fillId="1482" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="1482" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="870" fillId="1485" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="871" fillId="1473" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="872" fillId="1488" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1479" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1470" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1482" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1482" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="869" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1485" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1473" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="872" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="1491" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1494" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="1497" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1500" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1503" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1506" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1497" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="1509" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1509" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1500" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="1515" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/xml-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28782" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29348" uniqueCount="622">
   <si>
     <t>description</t>
   </si>
@@ -1935,6 +1935,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1945,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="889" x14ac:knownFonts="1">
+  <fonts count="905" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7558,8 +7561,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1516">
+  <fills count="1543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16146,8 +16250,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1599">
+  <borders count="1631">
     <border>
       <left/>
       <right/>
@@ -27569,6 +27826,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32319,7 +32902,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="915">
+  <cellXfs count="931">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35038,52 +35621,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1488" fontId="872" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="873" fillId="1491" borderId="1574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1491" fontId="873" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="874" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"